--- a/BioSTEAM 2.x.x/biorefineries/lactic/analyses/SSCF_reg_batch.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lactic/analyses/SSCF_reg_batch.xlsx
@@ -407,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q275"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -508,22 +508,22 @@
         <v>38.90131491831599</v>
       </c>
       <c r="F4">
-        <v>3.224473854417062</v>
+        <v>3.224473854424875</v>
       </c>
       <c r="G4">
-        <v>-608.4244395424612</v>
+        <v>-608.4247521827929</v>
       </c>
       <c r="H4">
         <v>6.105720261835074</v>
       </c>
       <c r="I4">
-        <v>63.69639685441642</v>
+        <v>63.69639685441641</v>
       </c>
       <c r="J4">
-        <v>3.379833400065413</v>
+        <v>3.379833400075837</v>
       </c>
       <c r="K4">
-        <v>-637.7395689422265</v>
+        <v>-637.7384305987507</v>
       </c>
       <c r="L4">
         <v>6.13573270876725</v>
@@ -532,13 +532,13 @@
         <v>64.06692552216657</v>
       </c>
       <c r="N4">
-        <v>3.201422771739169</v>
+        <v>3.201422771746916</v>
       </c>
       <c r="O4">
-        <v>-604.0746208061464</v>
+        <v>-604.0749706379138</v>
       </c>
       <c r="P4">
-        <v>6.101638463374669</v>
+        <v>6.101638463374668</v>
       </c>
       <c r="Q4">
         <v>63.64600365092399</v>
@@ -552,7 +552,7 @@
         <v>0.299999</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="D5">
         <v>0.299999</v>
@@ -566,7 +566,7 @@
         <v>0.299999</v>
       </c>
       <c r="C6">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="D6">
         <v>0.299999</v>
@@ -580,7 +580,7 @@
         <v>0.299999</v>
       </c>
       <c r="C7">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="D7">
         <v>0.299999</v>
@@ -591,52 +591,13 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>0.799999</v>
+        <v>0.299999</v>
       </c>
       <c r="C8">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D8">
-        <v>0.799999</v>
-      </c>
-      <c r="E8">
-        <v>49.99498797331971</v>
-      </c>
-      <c r="F8">
-        <v>1.65963355732533</v>
-      </c>
-      <c r="G8">
-        <v>-884.6150994719937</v>
-      </c>
-      <c r="H8">
-        <v>5.146973792061098</v>
-      </c>
-      <c r="I8">
-        <v>62.56947314839283</v>
-      </c>
-      <c r="J8">
-        <v>1.782519159033399</v>
-      </c>
-      <c r="K8">
-        <v>-966.3726106192917</v>
-      </c>
-      <c r="L8">
-        <v>5.171988149778167</v>
-      </c>
-      <c r="M8">
-        <v>62.87829623970815</v>
-      </c>
-      <c r="N8">
-        <v>1.641638111289085</v>
-      </c>
-      <c r="O8">
-        <v>-875.0239436710253</v>
-      </c>
-      <c r="P8">
-        <v>5.143571751332852</v>
-      </c>
-      <c r="Q8">
-        <v>62.52747212056869</v>
+        <v>0.299999</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -644,52 +605,13 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>0.799999</v>
+        <v>0.299999</v>
       </c>
       <c r="C9">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D9">
-        <v>0.799999</v>
-      </c>
-      <c r="E9">
-        <v>92.72712407202602</v>
-      </c>
-      <c r="F9">
-        <v>1.484913734313202</v>
-      </c>
-      <c r="G9">
-        <v>-935.9649421945214</v>
-      </c>
-      <c r="H9">
-        <v>5.540158774175076</v>
-      </c>
-      <c r="I9">
-        <v>71.64378983515527</v>
-      </c>
-      <c r="J9">
-        <v>1.597238278754798</v>
-      </c>
-      <c r="K9">
-        <v>-1006.765046144836</v>
-      </c>
-      <c r="L9">
-        <v>5.563053536344532</v>
-      </c>
-      <c r="M9">
-        <v>71.9264447531057</v>
-      </c>
-      <c r="N9">
-        <v>1.468410443556707</v>
-      </c>
-      <c r="O9">
-        <v>-925.5626530125737</v>
-      </c>
-      <c r="P9">
-        <v>5.53704500590467</v>
-      </c>
-      <c r="Q9">
-        <v>71.60534777105022</v>
+        <v>0.299999</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -697,13 +619,13 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>0.799999</v>
+        <v>0.299999</v>
       </c>
       <c r="C10">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="D10">
-        <v>0.799999</v>
+        <v>0.299999</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -711,13 +633,6244 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>0.799999</v>
+        <v>0.299999</v>
       </c>
       <c r="C11">
+        <v>85</v>
+      </c>
+      <c r="D11">
+        <v>0.299999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>0.299999</v>
+      </c>
+      <c r="C12">
+        <v>90</v>
+      </c>
+      <c r="D12">
+        <v>0.299999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>0.299999</v>
+      </c>
+      <c r="C13">
+        <v>95</v>
+      </c>
+      <c r="D13">
+        <v>0.299999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>0.299999</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="D14">
+        <v>0.299999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="1">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>0.299999</v>
+      </c>
+      <c r="C15">
+        <v>105</v>
+      </c>
+      <c r="D15">
+        <v>0.299999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="1">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>0.299999</v>
+      </c>
+      <c r="C16">
+        <v>110</v>
+      </c>
+      <c r="D16">
+        <v>0.299999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>0.299999</v>
+      </c>
+      <c r="C17">
+        <v>115</v>
+      </c>
+      <c r="D17">
+        <v>0.299999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>0.299999</v>
+      </c>
+      <c r="C18">
+        <v>120</v>
+      </c>
+      <c r="D18">
+        <v>0.299999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>0.299999</v>
+      </c>
+      <c r="C19">
+        <v>125</v>
+      </c>
+      <c r="D19">
+        <v>0.299999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>0.299999</v>
+      </c>
+      <c r="C20">
+        <v>130</v>
+      </c>
+      <c r="D20">
+        <v>0.299999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>0.299999</v>
+      </c>
+      <c r="C21">
+        <v>135</v>
+      </c>
+      <c r="D21">
+        <v>0.299999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>0.299999</v>
+      </c>
+      <c r="C22">
+        <v>140</v>
+      </c>
+      <c r="D22">
+        <v>0.299999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <v>0.299999</v>
+      </c>
+      <c r="C23">
+        <v>145</v>
+      </c>
+      <c r="D23">
+        <v>0.299999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>0.299999</v>
+      </c>
+      <c r="C24">
+        <v>150</v>
+      </c>
+      <c r="D24">
+        <v>0.299999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <v>0.299999</v>
+      </c>
+      <c r="C25">
+        <v>155</v>
+      </c>
+      <c r="D25">
+        <v>0.299999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>0.299999</v>
+      </c>
+      <c r="C26">
+        <v>160</v>
+      </c>
+      <c r="D26">
+        <v>0.299999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <v>0.299999</v>
+      </c>
+      <c r="C27">
+        <v>165</v>
+      </c>
+      <c r="D27">
+        <v>0.299999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>24</v>
+      </c>
+      <c r="B28">
+        <v>0.299999</v>
+      </c>
+      <c r="C28">
+        <v>170</v>
+      </c>
+      <c r="D28">
+        <v>0.299999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>25</v>
+      </c>
+      <c r="B29">
+        <v>0.299999</v>
+      </c>
+      <c r="C29">
+        <v>175</v>
+      </c>
+      <c r="D29">
+        <v>0.299999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>26</v>
+      </c>
+      <c r="B30">
+        <v>0.299999</v>
+      </c>
+      <c r="C30">
+        <v>180</v>
+      </c>
+      <c r="D30">
+        <v>0.299999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>27</v>
+      </c>
+      <c r="B31">
+        <v>0.299999</v>
+      </c>
+      <c r="C31">
+        <v>185</v>
+      </c>
+      <c r="D31">
+        <v>0.299999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>28</v>
+      </c>
+      <c r="B32">
+        <v>0.299999</v>
+      </c>
+      <c r="C32">
+        <v>190</v>
+      </c>
+      <c r="D32">
+        <v>0.299999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="1">
+        <v>29</v>
+      </c>
+      <c r="B33">
+        <v>0.299999</v>
+      </c>
+      <c r="C33">
+        <v>195</v>
+      </c>
+      <c r="D33">
+        <v>0.299999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="1">
+        <v>30</v>
+      </c>
+      <c r="B34">
+        <v>0.299999</v>
+      </c>
+      <c r="C34">
         <v>200</v>
       </c>
-      <c r="D11">
-        <v>0.799999</v>
+      <c r="D34">
+        <v>0.299999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="1">
+        <v>31</v>
+      </c>
+      <c r="B35">
+        <v>0.299999</v>
+      </c>
+      <c r="C35">
+        <v>205</v>
+      </c>
+      <c r="D35">
+        <v>0.299999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="1">
+        <v>32</v>
+      </c>
+      <c r="B36">
+        <v>0.299999</v>
+      </c>
+      <c r="C36">
+        <v>210</v>
+      </c>
+      <c r="D36">
+        <v>0.299999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="1">
+        <v>33</v>
+      </c>
+      <c r="B37">
+        <v>0.299999</v>
+      </c>
+      <c r="C37">
+        <v>215</v>
+      </c>
+      <c r="D37">
+        <v>0.299999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="1">
+        <v>34</v>
+      </c>
+      <c r="B38">
+        <v>0.399999</v>
+      </c>
+      <c r="C38">
+        <v>50</v>
+      </c>
+      <c r="D38">
+        <v>0.399999</v>
+      </c>
+      <c r="E38">
+        <v>50.42229254376999</v>
+      </c>
+      <c r="F38">
+        <v>2.390319153581297</v>
+      </c>
+      <c r="G38">
+        <v>-664.3671671696939</v>
+      </c>
+      <c r="H38">
+        <v>5.449115775438852</v>
+      </c>
+      <c r="I38">
+        <v>61.03008911340555</v>
+      </c>
+      <c r="J38">
+        <v>2.527140485415902</v>
+      </c>
+      <c r="K38">
+        <v>-702.3955558193848</v>
+      </c>
+      <c r="L38">
+        <v>5.476005158010058</v>
+      </c>
+      <c r="M38">
+        <v>61.3620609490659</v>
+      </c>
+      <c r="N38">
+        <v>2.370055464602039</v>
+      </c>
+      <c r="O38">
+        <v>-658.7342879627831</v>
+      </c>
+      <c r="P38">
+        <v>5.445458724728244</v>
+      </c>
+      <c r="Q38">
+        <v>60.98493977484084</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="1">
+        <v>35</v>
+      </c>
+      <c r="B39">
+        <v>0.399999</v>
+      </c>
+      <c r="C39">
+        <v>55</v>
+      </c>
+      <c r="D39">
+        <v>0.399999</v>
+      </c>
+      <c r="E39">
+        <v>51.31937171042125</v>
+      </c>
+      <c r="F39">
+        <v>2.367097309789908</v>
+      </c>
+      <c r="G39">
+        <v>-664.7021689587273</v>
+      </c>
+      <c r="H39">
+        <v>5.417723916346342</v>
+      </c>
+      <c r="I39">
+        <v>60.78604485959229</v>
+      </c>
+      <c r="J39">
+        <v>2.502921210651056</v>
+      </c>
+      <c r="K39">
+        <v>-702.842922013253</v>
+      </c>
+      <c r="L39">
+        <v>5.444419777927882</v>
+      </c>
+      <c r="M39">
+        <v>61.11562751736771</v>
+      </c>
+      <c r="N39">
+        <v>2.34697854327665</v>
+      </c>
+      <c r="O39">
+        <v>-659.0526019730605</v>
+      </c>
+      <c r="P39">
+        <v>5.41409318517174</v>
+      </c>
+      <c r="Q39">
+        <v>60.74122045763251</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="1">
+        <v>36</v>
+      </c>
+      <c r="B40">
+        <v>0.399999</v>
+      </c>
+      <c r="C40">
+        <v>60</v>
+      </c>
+      <c r="D40">
+        <v>0.399999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="1">
+        <v>37</v>
+      </c>
+      <c r="B41">
+        <v>0.399999</v>
+      </c>
+      <c r="C41">
+        <v>65</v>
+      </c>
+      <c r="D41">
+        <v>0.399999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="1">
+        <v>38</v>
+      </c>
+      <c r="B42">
+        <v>0.399999</v>
+      </c>
+      <c r="C42">
+        <v>70</v>
+      </c>
+      <c r="D42">
+        <v>0.399999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="1">
+        <v>39</v>
+      </c>
+      <c r="B43">
+        <v>0.399999</v>
+      </c>
+      <c r="C43">
+        <v>75</v>
+      </c>
+      <c r="D43">
+        <v>0.399999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="1">
+        <v>40</v>
+      </c>
+      <c r="B44">
+        <v>0.399999</v>
+      </c>
+      <c r="C44">
+        <v>80</v>
+      </c>
+      <c r="D44">
+        <v>0.399999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="1">
+        <v>41</v>
+      </c>
+      <c r="B45">
+        <v>0.399999</v>
+      </c>
+      <c r="C45">
+        <v>85</v>
+      </c>
+      <c r="D45">
+        <v>0.399999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="1">
+        <v>42</v>
+      </c>
+      <c r="B46">
+        <v>0.399999</v>
+      </c>
+      <c r="C46">
+        <v>90</v>
+      </c>
+      <c r="D46">
+        <v>0.399999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="1">
+        <v>43</v>
+      </c>
+      <c r="B47">
+        <v>0.399999</v>
+      </c>
+      <c r="C47">
+        <v>95</v>
+      </c>
+      <c r="D47">
+        <v>0.399999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="1">
+        <v>44</v>
+      </c>
+      <c r="B48">
+        <v>0.399999</v>
+      </c>
+      <c r="C48">
+        <v>100</v>
+      </c>
+      <c r="D48">
+        <v>0.399999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
+        <v>45</v>
+      </c>
+      <c r="B49">
+        <v>0.399999</v>
+      </c>
+      <c r="C49">
+        <v>105</v>
+      </c>
+      <c r="D49">
+        <v>0.399999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
+        <v>46</v>
+      </c>
+      <c r="B50">
+        <v>0.399999</v>
+      </c>
+      <c r="C50">
+        <v>110</v>
+      </c>
+      <c r="D50">
+        <v>0.399999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
+        <v>47</v>
+      </c>
+      <c r="B51">
+        <v>0.399999</v>
+      </c>
+      <c r="C51">
+        <v>115</v>
+      </c>
+      <c r="D51">
+        <v>0.399999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1">
+        <v>48</v>
+      </c>
+      <c r="B52">
+        <v>0.399999</v>
+      </c>
+      <c r="C52">
+        <v>120</v>
+      </c>
+      <c r="D52">
+        <v>0.399999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
+        <v>49</v>
+      </c>
+      <c r="B53">
+        <v>0.399999</v>
+      </c>
+      <c r="C53">
+        <v>125</v>
+      </c>
+      <c r="D53">
+        <v>0.399999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1">
+        <v>50</v>
+      </c>
+      <c r="B54">
+        <v>0.399999</v>
+      </c>
+      <c r="C54">
+        <v>130</v>
+      </c>
+      <c r="D54">
+        <v>0.399999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1">
+        <v>51</v>
+      </c>
+      <c r="B55">
+        <v>0.399999</v>
+      </c>
+      <c r="C55">
+        <v>135</v>
+      </c>
+      <c r="D55">
+        <v>0.399999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1">
+        <v>52</v>
+      </c>
+      <c r="B56">
+        <v>0.399999</v>
+      </c>
+      <c r="C56">
+        <v>140</v>
+      </c>
+      <c r="D56">
+        <v>0.399999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1">
+        <v>53</v>
+      </c>
+      <c r="B57">
+        <v>0.399999</v>
+      </c>
+      <c r="C57">
+        <v>145</v>
+      </c>
+      <c r="D57">
+        <v>0.399999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1">
+        <v>54</v>
+      </c>
+      <c r="B58">
+        <v>0.399999</v>
+      </c>
+      <c r="C58">
+        <v>150</v>
+      </c>
+      <c r="D58">
+        <v>0.399999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1">
+        <v>55</v>
+      </c>
+      <c r="B59">
+        <v>0.399999</v>
+      </c>
+      <c r="C59">
+        <v>155</v>
+      </c>
+      <c r="D59">
+        <v>0.399999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1">
+        <v>56</v>
+      </c>
+      <c r="B60">
+        <v>0.399999</v>
+      </c>
+      <c r="C60">
+        <v>160</v>
+      </c>
+      <c r="D60">
+        <v>0.399999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1">
+        <v>57</v>
+      </c>
+      <c r="B61">
+        <v>0.399999</v>
+      </c>
+      <c r="C61">
+        <v>165</v>
+      </c>
+      <c r="D61">
+        <v>0.399999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1">
+        <v>58</v>
+      </c>
+      <c r="B62">
+        <v>0.399999</v>
+      </c>
+      <c r="C62">
+        <v>170</v>
+      </c>
+      <c r="D62">
+        <v>0.399999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1">
+        <v>59</v>
+      </c>
+      <c r="B63">
+        <v>0.399999</v>
+      </c>
+      <c r="C63">
+        <v>175</v>
+      </c>
+      <c r="D63">
+        <v>0.399999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1">
+        <v>60</v>
+      </c>
+      <c r="B64">
+        <v>0.399999</v>
+      </c>
+      <c r="C64">
+        <v>180</v>
+      </c>
+      <c r="D64">
+        <v>0.399999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65" s="1">
+        <v>61</v>
+      </c>
+      <c r="B65">
+        <v>0.399999</v>
+      </c>
+      <c r="C65">
+        <v>185</v>
+      </c>
+      <c r="D65">
+        <v>0.399999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" s="1">
+        <v>62</v>
+      </c>
+      <c r="B66">
+        <v>0.399999</v>
+      </c>
+      <c r="C66">
+        <v>190</v>
+      </c>
+      <c r="D66">
+        <v>0.399999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" s="1">
+        <v>63</v>
+      </c>
+      <c r="B67">
+        <v>0.399999</v>
+      </c>
+      <c r="C67">
+        <v>195</v>
+      </c>
+      <c r="D67">
+        <v>0.399999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" s="1">
+        <v>64</v>
+      </c>
+      <c r="B68">
+        <v>0.399999</v>
+      </c>
+      <c r="C68">
+        <v>200</v>
+      </c>
+      <c r="D68">
+        <v>0.399999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69" s="1">
+        <v>65</v>
+      </c>
+      <c r="B69">
+        <v>0.399999</v>
+      </c>
+      <c r="C69">
+        <v>205</v>
+      </c>
+      <c r="D69">
+        <v>0.399999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70" s="1">
+        <v>66</v>
+      </c>
+      <c r="B70">
+        <v>0.399999</v>
+      </c>
+      <c r="C70">
+        <v>210</v>
+      </c>
+      <c r="D70">
+        <v>0.399999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" s="1">
+        <v>67</v>
+      </c>
+      <c r="B71">
+        <v>0.399999</v>
+      </c>
+      <c r="C71">
+        <v>215</v>
+      </c>
+      <c r="D71">
+        <v>0.399999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" s="1">
+        <v>68</v>
+      </c>
+      <c r="B72">
+        <v>0.499999</v>
+      </c>
+      <c r="C72">
+        <v>50</v>
+      </c>
+      <c r="D72">
+        <v>0.499999</v>
+      </c>
+      <c r="E72">
+        <v>49.99264227224663</v>
+      </c>
+      <c r="F72">
+        <v>2.101136683435</v>
+      </c>
+      <c r="G72">
+        <v>-720.847638017498</v>
+      </c>
+      <c r="H72">
+        <v>5.331897087374285</v>
+      </c>
+      <c r="I72">
+        <v>61.68195014756649</v>
+      </c>
+      <c r="J72">
+        <v>2.232478847136999</v>
+      </c>
+      <c r="K72">
+        <v>-765.9074297621846</v>
+      </c>
+      <c r="L72">
+        <v>5.358015348468246</v>
+      </c>
+      <c r="M72">
+        <v>62.00440184598902</v>
+      </c>
+      <c r="N72">
+        <v>2.081752439998116</v>
+      </c>
+      <c r="O72">
+        <v>-714.1976738306694</v>
+      </c>
+      <c r="P72">
+        <v>5.328344911899798</v>
+      </c>
+      <c r="Q72">
+        <v>61.63809558118771</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" s="1">
+        <v>69</v>
+      </c>
+      <c r="B73">
+        <v>0.499999</v>
+      </c>
+      <c r="C73">
+        <v>55</v>
+      </c>
+      <c r="D73">
+        <v>0.499999</v>
+      </c>
+      <c r="E73">
+        <v>55.00209128487048</v>
+      </c>
+      <c r="F73">
+        <v>2.028545470424386</v>
+      </c>
+      <c r="G73">
+        <v>-720.789427367039</v>
+      </c>
+      <c r="H73">
+        <v>5.21646505270988</v>
+      </c>
+      <c r="I73">
+        <v>60.63475886432852</v>
+      </c>
+      <c r="J73">
+        <v>2.15712794782368</v>
+      </c>
+      <c r="K73">
+        <v>-766.4773283107206</v>
+      </c>
+      <c r="L73">
+        <v>5.242042362078078</v>
+      </c>
+      <c r="M73">
+        <v>60.95053206290341</v>
+      </c>
+      <c r="N73">
+        <v>2.009554640909066</v>
+      </c>
+      <c r="O73">
+        <v>-714.0412509967573</v>
+      </c>
+      <c r="P73">
+        <v>5.212986448574856</v>
+      </c>
+      <c r="Q73">
+        <v>60.59181259744489</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74" s="1">
+        <v>70</v>
+      </c>
+      <c r="B74">
+        <v>0.499999</v>
+      </c>
+      <c r="C74">
+        <v>60</v>
+      </c>
+      <c r="D74">
+        <v>0.499999</v>
+      </c>
+      <c r="E74">
+        <v>61.02002711883436</v>
+      </c>
+      <c r="F74">
+        <v>1.961342988442611</v>
+      </c>
+      <c r="G74">
+        <v>-720.5861208224669</v>
+      </c>
+      <c r="H74">
+        <v>5.10934551845402</v>
+      </c>
+      <c r="I74">
+        <v>59.65724111820536</v>
+      </c>
+      <c r="J74">
+        <v>2.087741026408058</v>
+      </c>
+      <c r="K74">
+        <v>-767.0231369854882</v>
+      </c>
+      <c r="L74">
+        <v>5.134499542786145</v>
+      </c>
+      <c r="M74">
+        <v>59.9677885102724</v>
+      </c>
+      <c r="N74">
+        <v>1.942662874669086</v>
+      </c>
+      <c r="O74">
+        <v>-713.7224929132499</v>
+      </c>
+      <c r="P74">
+        <v>5.105924482574342</v>
+      </c>
+      <c r="Q74">
+        <v>59.61500557940752</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75" s="1">
+        <v>71</v>
+      </c>
+      <c r="B75">
+        <v>0.499999</v>
+      </c>
+      <c r="C75">
+        <v>65</v>
+      </c>
+      <c r="D75">
+        <v>0.499999</v>
+      </c>
+      <c r="E75">
+        <v>63.45457658399489</v>
+      </c>
+      <c r="F75">
+        <v>1.938565337026865</v>
+      </c>
+      <c r="G75">
+        <v>-720.4165110643953</v>
+      </c>
+      <c r="H75">
+        <v>5.072873491082833</v>
+      </c>
+      <c r="I75">
+        <v>59.32051281730758</v>
+      </c>
+      <c r="J75">
+        <v>2.064337229279146</v>
+      </c>
+      <c r="K75">
+        <v>-767.157692829147</v>
+      </c>
+      <c r="L75">
+        <v>5.097907888327153</v>
+      </c>
+      <c r="M75">
+        <v>59.62958331328642</v>
+      </c>
+      <c r="N75">
+        <v>1.919974081994765</v>
+      </c>
+      <c r="O75">
+        <v>-713.5089655043557</v>
+      </c>
+      <c r="P75">
+        <v>5.069468724908319</v>
+      </c>
+      <c r="Q75">
+        <v>59.27847814157806</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76" s="1">
+        <v>72</v>
+      </c>
+      <c r="B76">
+        <v>0.499999</v>
+      </c>
+      <c r="C76">
+        <v>70</v>
+      </c>
+      <c r="D76">
+        <v>0.499999</v>
+      </c>
+      <c r="E76">
+        <v>63.64570626026941</v>
+      </c>
+      <c r="F76">
+        <v>1.936926560056991</v>
+      </c>
+      <c r="G76">
+        <v>-720.4241021554917</v>
+      </c>
+      <c r="H76">
+        <v>5.070092640095398</v>
+      </c>
+      <c r="I76">
+        <v>59.29428745417646</v>
+      </c>
+      <c r="J76">
+        <v>2.062654697201928</v>
+      </c>
+      <c r="K76">
+        <v>-767.1871061129496</v>
+      </c>
+      <c r="L76">
+        <v>5.095118728047996</v>
+      </c>
+      <c r="M76">
+        <v>59.60325536502458</v>
+      </c>
+      <c r="N76">
+        <v>1.918341507997887</v>
+      </c>
+      <c r="O76">
+        <v>-713.5114384829067</v>
+      </c>
+      <c r="P76">
+        <v>5.066689004013816</v>
+      </c>
+      <c r="Q76">
+        <v>59.25226673038593</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="A77" s="1">
+        <v>73</v>
+      </c>
+      <c r="B77">
+        <v>0.499999</v>
+      </c>
+      <c r="C77">
+        <v>75</v>
+      </c>
+      <c r="D77">
+        <v>0.499999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="A78" s="1">
+        <v>74</v>
+      </c>
+      <c r="B78">
+        <v>0.499999</v>
+      </c>
+      <c r="C78">
+        <v>80</v>
+      </c>
+      <c r="D78">
+        <v>0.499999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="A79" s="1">
+        <v>75</v>
+      </c>
+      <c r="B79">
+        <v>0.499999</v>
+      </c>
+      <c r="C79">
+        <v>85</v>
+      </c>
+      <c r="D79">
+        <v>0.499999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
+      <c r="A80" s="1">
+        <v>76</v>
+      </c>
+      <c r="B80">
+        <v>0.499999</v>
+      </c>
+      <c r="C80">
+        <v>90</v>
+      </c>
+      <c r="D80">
+        <v>0.499999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1">
+        <v>77</v>
+      </c>
+      <c r="B81">
+        <v>0.499999</v>
+      </c>
+      <c r="C81">
+        <v>95</v>
+      </c>
+      <c r="D81">
+        <v>0.499999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1">
+        <v>78</v>
+      </c>
+      <c r="B82">
+        <v>0.499999</v>
+      </c>
+      <c r="C82">
+        <v>100</v>
+      </c>
+      <c r="D82">
+        <v>0.499999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1">
+        <v>79</v>
+      </c>
+      <c r="B83">
+        <v>0.499999</v>
+      </c>
+      <c r="C83">
+        <v>105</v>
+      </c>
+      <c r="D83">
+        <v>0.499999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1">
+        <v>80</v>
+      </c>
+      <c r="B84">
+        <v>0.499999</v>
+      </c>
+      <c r="C84">
+        <v>110</v>
+      </c>
+      <c r="D84">
+        <v>0.499999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1">
+        <v>81</v>
+      </c>
+      <c r="B85">
+        <v>0.499999</v>
+      </c>
+      <c r="C85">
+        <v>115</v>
+      </c>
+      <c r="D85">
+        <v>0.499999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1">
+        <v>82</v>
+      </c>
+      <c r="B86">
+        <v>0.499999</v>
+      </c>
+      <c r="C86">
+        <v>120</v>
+      </c>
+      <c r="D86">
+        <v>0.499999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1">
+        <v>83</v>
+      </c>
+      <c r="B87">
+        <v>0.499999</v>
+      </c>
+      <c r="C87">
+        <v>125</v>
+      </c>
+      <c r="D87">
+        <v>0.499999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1">
+        <v>84</v>
+      </c>
+      <c r="B88">
+        <v>0.499999</v>
+      </c>
+      <c r="C88">
+        <v>130</v>
+      </c>
+      <c r="D88">
+        <v>0.499999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1">
+        <v>85</v>
+      </c>
+      <c r="B89">
+        <v>0.499999</v>
+      </c>
+      <c r="C89">
+        <v>135</v>
+      </c>
+      <c r="D89">
+        <v>0.499999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1">
+        <v>86</v>
+      </c>
+      <c r="B90">
+        <v>0.499999</v>
+      </c>
+      <c r="C90">
+        <v>140</v>
+      </c>
+      <c r="D90">
+        <v>0.499999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1">
+        <v>87</v>
+      </c>
+      <c r="B91">
+        <v>0.499999</v>
+      </c>
+      <c r="C91">
+        <v>145</v>
+      </c>
+      <c r="D91">
+        <v>0.499999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1">
+        <v>88</v>
+      </c>
+      <c r="B92">
+        <v>0.499999</v>
+      </c>
+      <c r="C92">
+        <v>150</v>
+      </c>
+      <c r="D92">
+        <v>0.499999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1">
+        <v>89</v>
+      </c>
+      <c r="B93">
+        <v>0.499999</v>
+      </c>
+      <c r="C93">
+        <v>155</v>
+      </c>
+      <c r="D93">
+        <v>0.499999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1">
+        <v>90</v>
+      </c>
+      <c r="B94">
+        <v>0.499999</v>
+      </c>
+      <c r="C94">
+        <v>160</v>
+      </c>
+      <c r="D94">
+        <v>0.499999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1">
+        <v>91</v>
+      </c>
+      <c r="B95">
+        <v>0.499999</v>
+      </c>
+      <c r="C95">
+        <v>165</v>
+      </c>
+      <c r="D95">
+        <v>0.499999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1">
+        <v>92</v>
+      </c>
+      <c r="B96">
+        <v>0.499999</v>
+      </c>
+      <c r="C96">
+        <v>170</v>
+      </c>
+      <c r="D96">
+        <v>0.499999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17">
+      <c r="A97" s="1">
+        <v>93</v>
+      </c>
+      <c r="B97">
+        <v>0.499999</v>
+      </c>
+      <c r="C97">
+        <v>175</v>
+      </c>
+      <c r="D97">
+        <v>0.499999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17">
+      <c r="A98" s="1">
+        <v>94</v>
+      </c>
+      <c r="B98">
+        <v>0.499999</v>
+      </c>
+      <c r="C98">
+        <v>180</v>
+      </c>
+      <c r="D98">
+        <v>0.499999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17">
+      <c r="A99" s="1">
+        <v>95</v>
+      </c>
+      <c r="B99">
+        <v>0.499999</v>
+      </c>
+      <c r="C99">
+        <v>185</v>
+      </c>
+      <c r="D99">
+        <v>0.499999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17">
+      <c r="A100" s="1">
+        <v>96</v>
+      </c>
+      <c r="B100">
+        <v>0.499999</v>
+      </c>
+      <c r="C100">
+        <v>190</v>
+      </c>
+      <c r="D100">
+        <v>0.499999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17">
+      <c r="A101" s="1">
+        <v>97</v>
+      </c>
+      <c r="B101">
+        <v>0.499999</v>
+      </c>
+      <c r="C101">
+        <v>195</v>
+      </c>
+      <c r="D101">
+        <v>0.499999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17">
+      <c r="A102" s="1">
+        <v>98</v>
+      </c>
+      <c r="B102">
+        <v>0.499999</v>
+      </c>
+      <c r="C102">
+        <v>200</v>
+      </c>
+      <c r="D102">
+        <v>0.499999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17">
+      <c r="A103" s="1">
+        <v>99</v>
+      </c>
+      <c r="B103">
+        <v>0.499999</v>
+      </c>
+      <c r="C103">
+        <v>205</v>
+      </c>
+      <c r="D103">
+        <v>0.499999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17">
+      <c r="A104" s="1">
+        <v>100</v>
+      </c>
+      <c r="B104">
+        <v>0.499999</v>
+      </c>
+      <c r="C104">
+        <v>210</v>
+      </c>
+      <c r="D104">
+        <v>0.499999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17">
+      <c r="A105" s="1">
+        <v>101</v>
+      </c>
+      <c r="B105">
+        <v>0.499999</v>
+      </c>
+      <c r="C105">
+        <v>215</v>
+      </c>
+      <c r="D105">
+        <v>0.499999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17">
+      <c r="A106" s="1">
+        <v>102</v>
+      </c>
+      <c r="B106">
+        <v>0.5999990000000001</v>
+      </c>
+      <c r="C106">
+        <v>50</v>
+      </c>
+      <c r="D106">
+        <v>0.5999990000000001</v>
+      </c>
+      <c r="E106">
+        <v>49.9950414122824</v>
+      </c>
+      <c r="F106">
+        <v>1.906759592914072</v>
+      </c>
+      <c r="G106">
+        <v>-776.5371078550816</v>
+      </c>
+      <c r="H106">
+        <v>5.25150059230719</v>
+      </c>
+      <c r="I106">
+        <v>62.09590626044908</v>
+      </c>
+      <c r="J106">
+        <v>2.034430338426153</v>
+      </c>
+      <c r="K106">
+        <v>-828.5314276693389</v>
+      </c>
+      <c r="L106">
+        <v>5.277130632661067</v>
+      </c>
+      <c r="M106">
+        <v>62.41233046698466</v>
+      </c>
+      <c r="N106">
+        <v>1.887969899493007</v>
+      </c>
+      <c r="O106">
+        <v>-768.8847235376015</v>
+      </c>
+      <c r="P106">
+        <v>5.248014816572441</v>
+      </c>
+      <c r="Q106">
+        <v>62.05287145419049</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17">
+      <c r="A107" s="1">
+        <v>103</v>
+      </c>
+      <c r="B107">
+        <v>0.5999990000000001</v>
+      </c>
+      <c r="C107">
+        <v>55</v>
+      </c>
+      <c r="D107">
+        <v>0.5999990000000001</v>
+      </c>
+      <c r="E107">
+        <v>54.99480088283284</v>
+      </c>
+      <c r="F107">
+        <v>1.839069490828265</v>
+      </c>
+      <c r="G107">
+        <v>-775.7720520980656</v>
+      </c>
+      <c r="H107">
+        <v>5.139538090775065</v>
+      </c>
+      <c r="I107">
+        <v>61.04712901834718</v>
+      </c>
+      <c r="J107">
+        <v>1.963822183289123</v>
+      </c>
+      <c r="K107">
+        <v>-828.3958380902186</v>
+      </c>
+      <c r="L107">
+        <v>5.164585853470284</v>
+      </c>
+      <c r="M107">
+        <v>61.35636452195523</v>
+      </c>
+      <c r="N107">
+        <v>1.820695651040989</v>
+      </c>
+      <c r="O107">
+        <v>-768.0212438469753</v>
+      </c>
+      <c r="P107">
+        <v>5.136131506852168</v>
+      </c>
+      <c r="Q107">
+        <v>61.00507190099908</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17">
+      <c r="A108" s="1">
+        <v>104</v>
+      </c>
+      <c r="B108">
+        <v>0.5999990000000001</v>
+      </c>
+      <c r="C108">
+        <v>60</v>
+      </c>
+      <c r="D108">
+        <v>0.5999990000000001</v>
+      </c>
+      <c r="E108">
+        <v>60.00556715756343</v>
+      </c>
+      <c r="F108">
+        <v>1.78602940652594</v>
+      </c>
+      <c r="G108">
+        <v>-775.1486974228173</v>
+      </c>
+      <c r="H108">
+        <v>5.049246674686358</v>
+      </c>
+      <c r="I108">
+        <v>60.1852917254396</v>
+      </c>
+      <c r="J108">
+        <v>1.908726214077435</v>
+      </c>
+      <c r="K108">
+        <v>-828.3998802220449</v>
+      </c>
+      <c r="L108">
+        <v>5.073886699687296</v>
+      </c>
+      <c r="M108">
+        <v>60.48949336743036</v>
+      </c>
+      <c r="N108">
+        <v>1.76794818167592</v>
+      </c>
+      <c r="O108">
+        <v>-767.3013204103336</v>
+      </c>
+      <c r="P108">
+        <v>5.045895544525579</v>
+      </c>
+      <c r="Q108">
+        <v>60.14391923099632</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17">
+      <c r="A109" s="1">
+        <v>105</v>
+      </c>
+      <c r="B109">
+        <v>0.5999990000000001</v>
+      </c>
+      <c r="C109">
+        <v>65</v>
+      </c>
+      <c r="D109">
+        <v>0.5999990000000001</v>
+      </c>
+      <c r="E109">
+        <v>65.00256139925835</v>
+      </c>
+      <c r="F109">
+        <v>1.745418987908224</v>
+      </c>
+      <c r="G109">
+        <v>-775.4651496997103</v>
+      </c>
+      <c r="H109">
+        <v>4.978856331454238</v>
+      </c>
+      <c r="I109">
+        <v>59.52592440447992</v>
+      </c>
+      <c r="J109">
+        <v>1.866676844527606</v>
+      </c>
+      <c r="K109">
+        <v>-829.3378183664754</v>
+      </c>
+      <c r="L109">
+        <v>5.003213494712779</v>
+      </c>
+      <c r="M109">
+        <v>59.82663388254267</v>
+      </c>
+      <c r="N109">
+        <v>1.727542306343636</v>
+      </c>
+      <c r="O109">
+        <v>-767.5222072880715</v>
+      </c>
+      <c r="P109">
+        <v>4.975543671486417</v>
+      </c>
+      <c r="Q109">
+        <v>59.4850268566272</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17">
+      <c r="A110" s="1">
+        <v>106</v>
+      </c>
+      <c r="B110">
+        <v>0.5999990000000001</v>
+      </c>
+      <c r="C110">
+        <v>70</v>
+      </c>
+      <c r="D110">
+        <v>0.5999990000000001</v>
+      </c>
+      <c r="E110">
+        <v>70.00406623749781</v>
+      </c>
+      <c r="F110">
+        <v>1.889799877656437</v>
+      </c>
+      <c r="G110">
+        <v>-856.2816450139508</v>
+      </c>
+      <c r="H110">
+        <v>6.743279530206707</v>
+      </c>
+      <c r="I110">
+        <v>87.71655260060216</v>
+      </c>
+      <c r="J110">
+        <v>2.010064790140082</v>
+      </c>
+      <c r="K110">
+        <v>-910.7746511707082</v>
+      </c>
+      <c r="L110">
+        <v>6.767444146986726</v>
+      </c>
+      <c r="M110">
+        <v>88.01488493193213</v>
+      </c>
+      <c r="N110">
+        <v>1.872064144175349</v>
+      </c>
+      <c r="O110">
+        <v>-848.2454584510997</v>
+      </c>
+      <c r="P110">
+        <v>6.739993057237946</v>
+      </c>
+      <c r="Q110">
+        <v>87.67597835307532</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17">
+      <c r="A111" s="1">
+        <v>107</v>
+      </c>
+      <c r="B111">
+        <v>0.5999990000000001</v>
+      </c>
+      <c r="C111">
+        <v>75</v>
+      </c>
+      <c r="D111">
+        <v>0.5999990000000001</v>
+      </c>
+      <c r="E111">
+        <v>75.50401194384227</v>
+      </c>
+      <c r="F111">
+        <v>1.828412833458438</v>
+      </c>
+      <c r="G111">
+        <v>-843.7420563418418</v>
+      </c>
+      <c r="H111">
+        <v>6.379456656258539</v>
+      </c>
+      <c r="I111">
+        <v>82.31731074201839</v>
+      </c>
+      <c r="J111">
+        <v>1.947971446540486</v>
+      </c>
+      <c r="K111">
+        <v>-898.9135759323835</v>
+      </c>
+      <c r="L111">
+        <v>6.40348762567521</v>
+      </c>
+      <c r="M111">
+        <v>82.61399308527504</v>
+      </c>
+      <c r="N111">
+        <v>1.810777184749391</v>
+      </c>
+      <c r="O111">
+        <v>-835.6038838606328</v>
+      </c>
+      <c r="P111">
+        <v>6.376188359801783</v>
+      </c>
+      <c r="Q111">
+        <v>82.27696089867935</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17">
+      <c r="A112" s="1">
+        <v>108</v>
+      </c>
+      <c r="B112">
+        <v>0.5999990000000001</v>
+      </c>
+      <c r="C112">
+        <v>80</v>
+      </c>
+      <c r="D112">
+        <v>0.5999990000000001</v>
+      </c>
+      <c r="E112">
+        <v>75.66841209613752</v>
+      </c>
+      <c r="F112">
+        <v>1.826749051658424</v>
+      </c>
+      <c r="G112">
+        <v>-843.397800267674</v>
+      </c>
+      <c r="H112">
+        <v>6.369544785248512</v>
+      </c>
+      <c r="I112">
+        <v>82.17020943209211</v>
+      </c>
+      <c r="J112">
+        <v>1.946291492259515</v>
+      </c>
+      <c r="K112">
+        <v>-898.5899127479643</v>
+      </c>
+      <c r="L112">
+        <v>6.393572760516252</v>
+      </c>
+      <c r="M112">
+        <v>82.46685481008508</v>
+      </c>
+      <c r="N112">
+        <v>1.809115692880335</v>
+      </c>
+      <c r="O112">
+        <v>-835.2565965363756</v>
+      </c>
+      <c r="P112">
+        <v>6.366276896006553</v>
+      </c>
+      <c r="Q112">
+        <v>82.1298646161591</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
+        <v>109</v>
+      </c>
+      <c r="B113">
+        <v>0.5999990000000001</v>
+      </c>
+      <c r="C113">
+        <v>85</v>
+      </c>
+      <c r="D113">
+        <v>0.5999990000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
+        <v>110</v>
+      </c>
+      <c r="B114">
+        <v>0.5999990000000001</v>
+      </c>
+      <c r="C114">
+        <v>90</v>
+      </c>
+      <c r="D114">
+        <v>0.5999990000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
+        <v>111</v>
+      </c>
+      <c r="B115">
+        <v>0.5999990000000001</v>
+      </c>
+      <c r="C115">
+        <v>95</v>
+      </c>
+      <c r="D115">
+        <v>0.5999990000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
+        <v>112</v>
+      </c>
+      <c r="B116">
+        <v>0.5999990000000001</v>
+      </c>
+      <c r="C116">
+        <v>100</v>
+      </c>
+      <c r="D116">
+        <v>0.5999990000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
+        <v>113</v>
+      </c>
+      <c r="B117">
+        <v>0.5999990000000001</v>
+      </c>
+      <c r="C117">
+        <v>105</v>
+      </c>
+      <c r="D117">
+        <v>0.5999990000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
+        <v>114</v>
+      </c>
+      <c r="B118">
+        <v>0.5999990000000001</v>
+      </c>
+      <c r="C118">
+        <v>110</v>
+      </c>
+      <c r="D118">
+        <v>0.5999990000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
+        <v>115</v>
+      </c>
+      <c r="B119">
+        <v>0.5999990000000001</v>
+      </c>
+      <c r="C119">
+        <v>115</v>
+      </c>
+      <c r="D119">
+        <v>0.5999990000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
+        <v>116</v>
+      </c>
+      <c r="B120">
+        <v>0.5999990000000001</v>
+      </c>
+      <c r="C120">
+        <v>120</v>
+      </c>
+      <c r="D120">
+        <v>0.5999990000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
+        <v>117</v>
+      </c>
+      <c r="B121">
+        <v>0.5999990000000001</v>
+      </c>
+      <c r="C121">
+        <v>125</v>
+      </c>
+      <c r="D121">
+        <v>0.5999990000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
+        <v>118</v>
+      </c>
+      <c r="B122">
+        <v>0.5999990000000001</v>
+      </c>
+      <c r="C122">
+        <v>130</v>
+      </c>
+      <c r="D122">
+        <v>0.5999990000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
+        <v>119</v>
+      </c>
+      <c r="B123">
+        <v>0.5999990000000001</v>
+      </c>
+      <c r="C123">
+        <v>135</v>
+      </c>
+      <c r="D123">
+        <v>0.5999990000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
+        <v>120</v>
+      </c>
+      <c r="B124">
+        <v>0.5999990000000001</v>
+      </c>
+      <c r="C124">
+        <v>140</v>
+      </c>
+      <c r="D124">
+        <v>0.5999990000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
+        <v>121</v>
+      </c>
+      <c r="B125">
+        <v>0.5999990000000001</v>
+      </c>
+      <c r="C125">
+        <v>145</v>
+      </c>
+      <c r="D125">
+        <v>0.5999990000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
+        <v>122</v>
+      </c>
+      <c r="B126">
+        <v>0.5999990000000001</v>
+      </c>
+      <c r="C126">
+        <v>150</v>
+      </c>
+      <c r="D126">
+        <v>0.5999990000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
+        <v>123</v>
+      </c>
+      <c r="B127">
+        <v>0.5999990000000001</v>
+      </c>
+      <c r="C127">
+        <v>155</v>
+      </c>
+      <c r="D127">
+        <v>0.5999990000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
+        <v>124</v>
+      </c>
+      <c r="B128">
+        <v>0.5999990000000001</v>
+      </c>
+      <c r="C128">
+        <v>160</v>
+      </c>
+      <c r="D128">
+        <v>0.5999990000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17">
+      <c r="A129" s="1">
+        <v>125</v>
+      </c>
+      <c r="B129">
+        <v>0.5999990000000001</v>
+      </c>
+      <c r="C129">
+        <v>165</v>
+      </c>
+      <c r="D129">
+        <v>0.5999990000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17">
+      <c r="A130" s="1">
+        <v>126</v>
+      </c>
+      <c r="B130">
+        <v>0.5999990000000001</v>
+      </c>
+      <c r="C130">
+        <v>170</v>
+      </c>
+      <c r="D130">
+        <v>0.5999990000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17">
+      <c r="A131" s="1">
+        <v>127</v>
+      </c>
+      <c r="B131">
+        <v>0.5999990000000001</v>
+      </c>
+      <c r="C131">
+        <v>175</v>
+      </c>
+      <c r="D131">
+        <v>0.5999990000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17">
+      <c r="A132" s="1">
+        <v>128</v>
+      </c>
+      <c r="B132">
+        <v>0.5999990000000001</v>
+      </c>
+      <c r="C132">
+        <v>180</v>
+      </c>
+      <c r="D132">
+        <v>0.5999990000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17">
+      <c r="A133" s="1">
+        <v>129</v>
+      </c>
+      <c r="B133">
+        <v>0.5999990000000001</v>
+      </c>
+      <c r="C133">
+        <v>185</v>
+      </c>
+      <c r="D133">
+        <v>0.5999990000000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17">
+      <c r="A134" s="1">
+        <v>130</v>
+      </c>
+      <c r="B134">
+        <v>0.5999990000000001</v>
+      </c>
+      <c r="C134">
+        <v>190</v>
+      </c>
+      <c r="D134">
+        <v>0.5999990000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17">
+      <c r="A135" s="1">
+        <v>131</v>
+      </c>
+      <c r="B135">
+        <v>0.5999990000000001</v>
+      </c>
+      <c r="C135">
+        <v>195</v>
+      </c>
+      <c r="D135">
+        <v>0.5999990000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17">
+      <c r="A136" s="1">
+        <v>132</v>
+      </c>
+      <c r="B136">
+        <v>0.5999990000000001</v>
+      </c>
+      <c r="C136">
+        <v>200</v>
+      </c>
+      <c r="D136">
+        <v>0.5999990000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17">
+      <c r="A137" s="1">
+        <v>133</v>
+      </c>
+      <c r="B137">
+        <v>0.5999990000000001</v>
+      </c>
+      <c r="C137">
+        <v>205</v>
+      </c>
+      <c r="D137">
+        <v>0.5999990000000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17">
+      <c r="A138" s="1">
+        <v>134</v>
+      </c>
+      <c r="B138">
+        <v>0.5999990000000001</v>
+      </c>
+      <c r="C138">
+        <v>210</v>
+      </c>
+      <c r="D138">
+        <v>0.5999990000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17">
+      <c r="A139" s="1">
+        <v>135</v>
+      </c>
+      <c r="B139">
+        <v>0.5999990000000001</v>
+      </c>
+      <c r="C139">
+        <v>215</v>
+      </c>
+      <c r="D139">
+        <v>0.5999990000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17">
+      <c r="A140" s="1">
+        <v>136</v>
+      </c>
+      <c r="B140">
+        <v>0.6999990000000001</v>
+      </c>
+      <c r="C140">
+        <v>50</v>
+      </c>
+      <c r="D140">
+        <v>0.6999990000000001</v>
+      </c>
+      <c r="E140">
+        <v>49.99487877058687</v>
+      </c>
+      <c r="F140">
+        <v>1.767040703016127</v>
+      </c>
+      <c r="G140">
+        <v>-831.4993951581419</v>
+      </c>
+      <c r="H140">
+        <v>5.193413056048654</v>
+      </c>
+      <c r="I140">
+        <v>62.38910650771871</v>
+      </c>
+      <c r="J140">
+        <v>1.891978179445932</v>
+      </c>
+      <c r="K140">
+        <v>-890.2911841692403</v>
+      </c>
+      <c r="L140">
+        <v>5.218692085698693</v>
+      </c>
+      <c r="M140">
+        <v>62.70119719460648</v>
+      </c>
+      <c r="N140">
+        <v>1.748696463708955</v>
+      </c>
+      <c r="O140">
+        <v>-822.8693831646815</v>
+      </c>
+      <c r="P140">
+        <v>5.189975019005581</v>
+      </c>
+      <c r="Q140">
+        <v>62.3466610753911</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17">
+      <c r="A141" s="1">
+        <v>137</v>
+      </c>
+      <c r="B141">
+        <v>0.6999990000000001</v>
+      </c>
+      <c r="C141">
+        <v>55</v>
+      </c>
+      <c r="D141">
+        <v>0.6999990000000001</v>
+      </c>
+      <c r="E141">
+        <v>54.99452559464423</v>
+      </c>
+      <c r="F141">
+        <v>1.704198716378507</v>
+      </c>
+      <c r="G141">
+        <v>-830.7080563846976</v>
+      </c>
+      <c r="H141">
+        <v>5.083638522869428</v>
+      </c>
+      <c r="I141">
+        <v>61.33490136011552</v>
+      </c>
+      <c r="J141">
+        <v>1.826106816779004</v>
+      </c>
+      <c r="K141">
+        <v>-890.1324508497491</v>
+      </c>
+      <c r="L141">
+        <v>5.108305109388117</v>
+      </c>
+      <c r="M141">
+        <v>61.6394309261775</v>
+      </c>
+      <c r="N141">
+        <v>1.68628593279008</v>
+      </c>
+      <c r="O141">
+        <v>-821.977422574535</v>
+      </c>
+      <c r="P141">
+        <v>5.080283780248708</v>
+      </c>
+      <c r="Q141">
+        <v>61.29348426684389</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17">
+      <c r="A142" s="1">
+        <v>138</v>
+      </c>
+      <c r="B142">
+        <v>0.6999990000000001</v>
+      </c>
+      <c r="C142">
+        <v>60</v>
+      </c>
+      <c r="D142">
+        <v>0.6999990000000001</v>
+      </c>
+      <c r="E142">
+        <v>59.99433040304598</v>
+      </c>
+      <c r="F142">
+        <v>1.655607270837506</v>
+      </c>
+      <c r="G142">
+        <v>-830.3443229291588</v>
+      </c>
+      <c r="H142">
+        <v>4.997028658655744</v>
+      </c>
+      <c r="I142">
+        <v>60.49896100953882</v>
+      </c>
+      <c r="J142">
+        <v>1.775345140401256</v>
+      </c>
+      <c r="K142">
+        <v>-890.3966296007857</v>
+      </c>
+      <c r="L142">
+        <v>5.021258181592276</v>
+      </c>
+      <c r="M142">
+        <v>60.79809466145942</v>
+      </c>
+      <c r="N142">
+        <v>1.638003326983786</v>
+      </c>
+      <c r="O142">
+        <v>-821.5151295186952</v>
+      </c>
+      <c r="P142">
+        <v>4.993733358221153</v>
+      </c>
+      <c r="Q142">
+        <v>60.45827777959011</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17">
+      <c r="A143" s="1">
+        <v>139</v>
+      </c>
+      <c r="B143">
+        <v>0.6999990000000001</v>
+      </c>
+      <c r="C143">
+        <v>65</v>
+      </c>
+      <c r="D143">
+        <v>0.6999990000000001</v>
+      </c>
+      <c r="E143">
+        <v>64.99361047864006</v>
+      </c>
+      <c r="F143">
+        <v>1.616643909221024</v>
+      </c>
+      <c r="G143">
+        <v>-830.0722712790594</v>
+      </c>
+      <c r="H143">
+        <v>4.926745039758707</v>
+      </c>
+      <c r="I143">
+        <v>59.81627508815701</v>
+      </c>
+      <c r="J143">
+        <v>1.734819640340929</v>
+      </c>
+      <c r="K143">
+        <v>-890.7502879835665</v>
+      </c>
+      <c r="L143">
+        <v>4.950661641875303</v>
+      </c>
+      <c r="M143">
+        <v>60.11154547178815</v>
+      </c>
+      <c r="N143">
+        <v>1.599262113188565</v>
+      </c>
+      <c r="O143">
+        <v>-821.1479391008615</v>
+      </c>
+      <c r="P143">
+        <v>4.923492297657462</v>
+      </c>
+      <c r="Q143">
+        <v>59.77611727629873</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17">
+      <c r="A144" s="1">
+        <v>140</v>
+      </c>
+      <c r="B144">
+        <v>0.6999990000000001</v>
+      </c>
+      <c r="C144">
+        <v>70</v>
+      </c>
+      <c r="D144">
+        <v>0.6999990000000001</v>
+      </c>
+      <c r="E144">
+        <v>70.0080743402732</v>
+      </c>
+      <c r="F144">
+        <v>1.76498696316848</v>
+      </c>
+      <c r="G144">
+        <v>-924.327282814309</v>
+      </c>
+      <c r="H144">
+        <v>6.728527007805542</v>
+      </c>
+      <c r="I144">
+        <v>88.57617506723084</v>
+      </c>
+      <c r="J144">
+        <v>1.882041951235816</v>
+      </c>
+      <c r="K144">
+        <v>-985.6291449647397</v>
+      </c>
+      <c r="L144">
+        <v>6.752220830026318</v>
+      </c>
+      <c r="M144">
+        <v>88.86869504739818</v>
+      </c>
+      <c r="N144">
+        <v>1.747764461071042</v>
+      </c>
+      <c r="O144">
+        <v>-915.3078234633431</v>
+      </c>
+      <c r="P144">
+        <v>6.725304564554565</v>
+      </c>
+      <c r="Q144">
+        <v>88.53639131992816</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17">
+      <c r="A145" s="1">
+        <v>141</v>
+      </c>
+      <c r="B145">
+        <v>0.6999990000000001</v>
+      </c>
+      <c r="C145">
+        <v>75</v>
+      </c>
+      <c r="D145">
+        <v>0.6999990000000001</v>
+      </c>
+      <c r="E145">
+        <v>75.00298233860269</v>
+      </c>
+      <c r="F145">
+        <v>1.710457172627162</v>
+      </c>
+      <c r="G145">
+        <v>-910.901413555257</v>
+      </c>
+      <c r="H145">
+        <v>6.392429182820859</v>
+      </c>
+      <c r="I145">
+        <v>83.56790320837237</v>
+      </c>
+      <c r="J145">
+        <v>1.826730473867313</v>
+      </c>
+      <c r="K145">
+        <v>-972.8222165266052</v>
+      </c>
+      <c r="L145">
+        <v>6.415969435435281</v>
+      </c>
+      <c r="M145">
+        <v>83.8585272437746</v>
+      </c>
+      <c r="N145">
+        <v>1.693345738715045</v>
+      </c>
+      <c r="O145">
+        <v>-901.7887446414679</v>
+      </c>
+      <c r="P145">
+        <v>6.389227625577083</v>
+      </c>
+      <c r="Q145">
+        <v>83.52837731623362</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17">
+      <c r="A146" s="1">
+        <v>142</v>
+      </c>
+      <c r="B146">
+        <v>0.6999990000000001</v>
+      </c>
+      <c r="C146">
+        <v>80</v>
+      </c>
+      <c r="D146">
+        <v>0.6999990000000001</v>
+      </c>
+      <c r="E146">
+        <v>80.00513202427861</v>
+      </c>
+      <c r="F146">
+        <v>1.66567640897014</v>
+      </c>
+      <c r="G146">
+        <v>-899.9741433802992</v>
+      </c>
+      <c r="H146">
+        <v>6.111537372352533</v>
+      </c>
+      <c r="I146">
+        <v>79.38643353678171</v>
+      </c>
+      <c r="J146">
+        <v>1.781424286285313</v>
+      </c>
+      <c r="K146">
+        <v>-962.5123991984874</v>
+      </c>
+      <c r="L146">
+        <v>6.134976398094484</v>
+      </c>
+      <c r="M146">
+        <v>79.67580784208756</v>
+      </c>
+      <c r="N146">
+        <v>1.648639638433383</v>
+      </c>
+      <c r="O146">
+        <v>-890.7690828647465</v>
+      </c>
+      <c r="P146">
+        <v>6.108349582319846</v>
+      </c>
+      <c r="Q146">
+        <v>79.34707761233651</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17">
+      <c r="A147" s="1">
+        <v>143</v>
+      </c>
+      <c r="B147">
+        <v>0.6999990000000001</v>
+      </c>
+      <c r="C147">
+        <v>85</v>
+      </c>
+      <c r="D147">
+        <v>0.6999990000000001</v>
+      </c>
+      <c r="E147">
+        <v>85.81386789159693</v>
+      </c>
+      <c r="F147">
+        <v>1.619448678524174</v>
+      </c>
+      <c r="G147">
+        <v>-887.746279258281</v>
+      </c>
+      <c r="H147">
+        <v>5.831835583605594</v>
+      </c>
+      <c r="I147">
+        <v>75.22083127340528</v>
+      </c>
+      <c r="J147">
+        <v>1.734839387510124</v>
+      </c>
+      <c r="K147">
+        <v>-951.0007292013615</v>
+      </c>
+      <c r="L147">
+        <v>5.8552087249004</v>
+      </c>
+      <c r="M147">
+        <v>75.50939218030742</v>
+      </c>
+      <c r="N147">
+        <v>1.602462707060519</v>
+      </c>
+      <c r="O147">
+        <v>-878.4349423162639</v>
+      </c>
+      <c r="P147">
+        <v>5.828656754089708</v>
+      </c>
+      <c r="Q147">
+        <v>75.18158597400706</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17">
+      <c r="A148" s="1">
+        <v>144</v>
+      </c>
+      <c r="B148">
+        <v>0.6999990000000001</v>
+      </c>
+      <c r="C148">
+        <v>90</v>
+      </c>
+      <c r="D148">
+        <v>0.6999990000000001</v>
+      </c>
+      <c r="E148">
+        <v>87.37686935026851</v>
+      </c>
+      <c r="F148">
+        <v>1.608513078409825</v>
+      </c>
+      <c r="G148">
+        <v>-884.8726662574336</v>
+      </c>
+      <c r="H148">
+        <v>5.7642220984323</v>
+      </c>
+      <c r="I148">
+        <v>74.21377927172394</v>
+      </c>
+      <c r="J148">
+        <v>1.723846058102239</v>
+      </c>
+      <c r="K148">
+        <v>-948.3200564980507</v>
+      </c>
+      <c r="L148">
+        <v>5.787585349912208</v>
+      </c>
+      <c r="M148">
+        <v>74.50221808061963</v>
+      </c>
+      <c r="N148">
+        <v>1.591535335225107</v>
+      </c>
+      <c r="O148">
+        <v>-875.5328972274438</v>
+      </c>
+      <c r="P148">
+        <v>5.761044613966062</v>
+      </c>
+      <c r="Q148">
+        <v>74.17455057808451</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17">
+      <c r="A149" s="1">
+        <v>145</v>
+      </c>
+      <c r="B149">
+        <v>0.6999990000000001</v>
+      </c>
+      <c r="C149">
+        <v>95</v>
+      </c>
+      <c r="D149">
+        <v>0.6999990000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17">
+      <c r="A150" s="1">
+        <v>146</v>
+      </c>
+      <c r="B150">
+        <v>0.6999990000000001</v>
+      </c>
+      <c r="C150">
+        <v>100</v>
+      </c>
+      <c r="D150">
+        <v>0.6999990000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17">
+      <c r="A151" s="1">
+        <v>147</v>
+      </c>
+      <c r="B151">
+        <v>0.6999990000000001</v>
+      </c>
+      <c r="C151">
+        <v>105</v>
+      </c>
+      <c r="D151">
+        <v>0.6999990000000001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17">
+      <c r="A152" s="1">
+        <v>148</v>
+      </c>
+      <c r="B152">
+        <v>0.6999990000000001</v>
+      </c>
+      <c r="C152">
+        <v>110</v>
+      </c>
+      <c r="D152">
+        <v>0.6999990000000001</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17">
+      <c r="A153" s="1">
+        <v>149</v>
+      </c>
+      <c r="B153">
+        <v>0.6999990000000001</v>
+      </c>
+      <c r="C153">
+        <v>115</v>
+      </c>
+      <c r="D153">
+        <v>0.6999990000000001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17">
+      <c r="A154" s="1">
+        <v>150</v>
+      </c>
+      <c r="B154">
+        <v>0.6999990000000001</v>
+      </c>
+      <c r="C154">
+        <v>120</v>
+      </c>
+      <c r="D154">
+        <v>0.6999990000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17">
+      <c r="A155" s="1">
+        <v>151</v>
+      </c>
+      <c r="B155">
+        <v>0.6999990000000001</v>
+      </c>
+      <c r="C155">
+        <v>125</v>
+      </c>
+      <c r="D155">
+        <v>0.6999990000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17">
+      <c r="A156" s="1">
+        <v>152</v>
+      </c>
+      <c r="B156">
+        <v>0.6999990000000001</v>
+      </c>
+      <c r="C156">
+        <v>130</v>
+      </c>
+      <c r="D156">
+        <v>0.6999990000000001</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17">
+      <c r="A157" s="1">
+        <v>153</v>
+      </c>
+      <c r="B157">
+        <v>0.6999990000000001</v>
+      </c>
+      <c r="C157">
+        <v>135</v>
+      </c>
+      <c r="D157">
+        <v>0.6999990000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17">
+      <c r="A158" s="1">
+        <v>154</v>
+      </c>
+      <c r="B158">
+        <v>0.6999990000000001</v>
+      </c>
+      <c r="C158">
+        <v>140</v>
+      </c>
+      <c r="D158">
+        <v>0.6999990000000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17">
+      <c r="A159" s="1">
+        <v>155</v>
+      </c>
+      <c r="B159">
+        <v>0.6999990000000001</v>
+      </c>
+      <c r="C159">
+        <v>145</v>
+      </c>
+      <c r="D159">
+        <v>0.6999990000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17">
+      <c r="A160" s="1">
+        <v>156</v>
+      </c>
+      <c r="B160">
+        <v>0.6999990000000001</v>
+      </c>
+      <c r="C160">
+        <v>150</v>
+      </c>
+      <c r="D160">
+        <v>0.6999990000000001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17">
+      <c r="A161" s="1">
+        <v>157</v>
+      </c>
+      <c r="B161">
+        <v>0.6999990000000001</v>
+      </c>
+      <c r="C161">
+        <v>155</v>
+      </c>
+      <c r="D161">
+        <v>0.6999990000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17">
+      <c r="A162" s="1">
+        <v>158</v>
+      </c>
+      <c r="B162">
+        <v>0.6999990000000001</v>
+      </c>
+      <c r="C162">
+        <v>160</v>
+      </c>
+      <c r="D162">
+        <v>0.6999990000000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17">
+      <c r="A163" s="1">
+        <v>159</v>
+      </c>
+      <c r="B163">
+        <v>0.6999990000000001</v>
+      </c>
+      <c r="C163">
+        <v>165</v>
+      </c>
+      <c r="D163">
+        <v>0.6999990000000001</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17">
+      <c r="A164" s="1">
+        <v>160</v>
+      </c>
+      <c r="B164">
+        <v>0.6999990000000001</v>
+      </c>
+      <c r="C164">
+        <v>170</v>
+      </c>
+      <c r="D164">
+        <v>0.6999990000000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17">
+      <c r="A165" s="1">
+        <v>161</v>
+      </c>
+      <c r="B165">
+        <v>0.6999990000000001</v>
+      </c>
+      <c r="C165">
+        <v>175</v>
+      </c>
+      <c r="D165">
+        <v>0.6999990000000001</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17">
+      <c r="A166" s="1">
+        <v>162</v>
+      </c>
+      <c r="B166">
+        <v>0.6999990000000001</v>
+      </c>
+      <c r="C166">
+        <v>180</v>
+      </c>
+      <c r="D166">
+        <v>0.6999990000000001</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17">
+      <c r="A167" s="1">
+        <v>163</v>
+      </c>
+      <c r="B167">
+        <v>0.6999990000000001</v>
+      </c>
+      <c r="C167">
+        <v>185</v>
+      </c>
+      <c r="D167">
+        <v>0.6999990000000001</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17">
+      <c r="A168" s="1">
+        <v>164</v>
+      </c>
+      <c r="B168">
+        <v>0.6999990000000001</v>
+      </c>
+      <c r="C168">
+        <v>190</v>
+      </c>
+      <c r="D168">
+        <v>0.6999990000000001</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17">
+      <c r="A169" s="1">
+        <v>165</v>
+      </c>
+      <c r="B169">
+        <v>0.6999990000000001</v>
+      </c>
+      <c r="C169">
+        <v>195</v>
+      </c>
+      <c r="D169">
+        <v>0.6999990000000001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17">
+      <c r="A170" s="1">
+        <v>166</v>
+      </c>
+      <c r="B170">
+        <v>0.6999990000000001</v>
+      </c>
+      <c r="C170">
+        <v>200</v>
+      </c>
+      <c r="D170">
+        <v>0.6999990000000001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17">
+      <c r="A171" s="1">
+        <v>167</v>
+      </c>
+      <c r="B171">
+        <v>0.6999990000000001</v>
+      </c>
+      <c r="C171">
+        <v>205</v>
+      </c>
+      <c r="D171">
+        <v>0.6999990000000001</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17">
+      <c r="A172" s="1">
+        <v>168</v>
+      </c>
+      <c r="B172">
+        <v>0.6999990000000001</v>
+      </c>
+      <c r="C172">
+        <v>210</v>
+      </c>
+      <c r="D172">
+        <v>0.6999990000000001</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17">
+      <c r="A173" s="1">
+        <v>169</v>
+      </c>
+      <c r="B173">
+        <v>0.6999990000000001</v>
+      </c>
+      <c r="C173">
+        <v>215</v>
+      </c>
+      <c r="D173">
+        <v>0.6999990000000001</v>
+      </c>
+    </row>
+    <row r="174" spans="1:17">
+      <c r="A174" s="1">
+        <v>170</v>
+      </c>
+      <c r="B174">
+        <v>0.7999990000000002</v>
+      </c>
+      <c r="C174">
+        <v>50</v>
+      </c>
+      <c r="D174">
+        <v>0.7999990000000002</v>
+      </c>
+      <c r="E174">
+        <v>49.99498797355606</v>
+      </c>
+      <c r="F174">
+        <v>1.659992742042341</v>
+      </c>
+      <c r="G174">
+        <v>-884.8051202408969</v>
+      </c>
+      <c r="H174">
+        <v>5.149812099515178</v>
+      </c>
+      <c r="I174">
+        <v>62.61291332537668</v>
+      </c>
+      <c r="J174">
+        <v>1.782878270553199</v>
+      </c>
+      <c r="K174">
+        <v>-966.5429570870474</v>
+      </c>
+      <c r="L174">
+        <v>5.174826503550957</v>
+      </c>
+      <c r="M174">
+        <v>62.92173698853507</v>
+      </c>
+      <c r="N174">
+        <v>1.641997262699527</v>
+      </c>
+      <c r="O174">
+        <v>-875.2147386698052</v>
+      </c>
+      <c r="P174">
+        <v>5.146410052487425</v>
+      </c>
+      <c r="Q174">
+        <v>62.57091221977988</v>
+      </c>
+    </row>
+    <row r="175" spans="1:17">
+      <c r="A175" s="1">
+        <v>171</v>
+      </c>
+      <c r="B175">
+        <v>0.7999990000000002</v>
+      </c>
+      <c r="C175">
+        <v>55</v>
+      </c>
+      <c r="D175">
+        <v>0.7999990000000002</v>
+      </c>
+      <c r="E175">
+        <v>54.99448158770279</v>
+      </c>
+      <c r="F175">
+        <v>1.602608193965694</v>
+      </c>
+      <c r="G175">
+        <v>-884.9449137477204</v>
+      </c>
+      <c r="H175">
+        <v>5.041879301157959</v>
+      </c>
+      <c r="I175">
+        <v>61.55762922558057</v>
+      </c>
+      <c r="J175">
+        <v>1.722345657824446</v>
+      </c>
+      <c r="K175">
+        <v>-964.4860017718747</v>
+      </c>
+      <c r="L175">
+        <v>5.066258439626959</v>
+      </c>
+      <c r="M175">
+        <v>61.85861000592911</v>
+      </c>
+      <c r="N175">
+        <v>1.58505539757445</v>
+      </c>
+      <c r="O175">
+        <v>-875.252210367471</v>
+      </c>
+      <c r="P175">
+        <v>5.038563652484138</v>
+      </c>
+      <c r="Q175">
+        <v>61.51669477966169</v>
+      </c>
+    </row>
+    <row r="176" spans="1:17">
+      <c r="A176" s="1">
+        <v>172</v>
+      </c>
+      <c r="B176">
+        <v>0.7999990000000002</v>
+      </c>
+      <c r="C176">
+        <v>60</v>
+      </c>
+      <c r="D176">
+        <v>0.7999990000000002</v>
+      </c>
+      <c r="E176">
+        <v>59.99399612128224</v>
+      </c>
+      <c r="F176">
+        <v>1.556894986985869</v>
+      </c>
+      <c r="G176">
+        <v>-884.5912319133058</v>
+      </c>
+      <c r="H176">
+        <v>4.957271314184333</v>
+      </c>
+      <c r="I176">
+        <v>60.72941738762275</v>
+      </c>
+      <c r="J176">
+        <v>1.674345358777387</v>
+      </c>
+      <c r="K176">
+        <v>-962.2608723603189</v>
+      </c>
+      <c r="L176">
+        <v>4.981191049555541</v>
+      </c>
+      <c r="M176">
+        <v>61.02472645389312</v>
+      </c>
+      <c r="N176">
+        <v>1.539662935724826</v>
+      </c>
+      <c r="O176">
+        <v>-874.8011256605387</v>
+      </c>
+      <c r="P176">
+        <v>4.954018145949429</v>
+      </c>
+      <c r="Q176">
+        <v>60.68925431478932</v>
+      </c>
+    </row>
+    <row r="177" spans="1:17">
+      <c r="A177" s="1">
+        <v>173</v>
+      </c>
+      <c r="B177">
+        <v>0.7999990000000002</v>
+      </c>
+      <c r="C177">
+        <v>65</v>
+      </c>
+      <c r="D177">
+        <v>0.7999990000000002</v>
+      </c>
+      <c r="E177">
+        <v>64.99369253608219</v>
+      </c>
+      <c r="F177">
+        <v>1.518692184395539</v>
+      </c>
+      <c r="G177">
+        <v>-883.4355856496841</v>
+      </c>
+      <c r="H177">
+        <v>4.888705172399284</v>
+      </c>
+      <c r="I177">
+        <v>60.05479779202788</v>
+      </c>
+      <c r="J177">
+        <v>1.634485054213736</v>
+      </c>
+      <c r="K177">
+        <v>-950.7933580838144</v>
+      </c>
+      <c r="L177">
+        <v>4.912289565305016</v>
+      </c>
+      <c r="M177">
+        <v>60.3459667761099</v>
+      </c>
+      <c r="N177">
+        <v>1.501694963291188</v>
+      </c>
+      <c r="O177">
+        <v>-873.5485836770386</v>
+      </c>
+      <c r="P177">
+        <v>4.885497611920467</v>
+      </c>
+      <c r="Q177">
+        <v>60.01519778494983</v>
+      </c>
+    </row>
+    <row r="178" spans="1:17">
+      <c r="A178" s="1">
+        <v>174</v>
+      </c>
+      <c r="B178">
+        <v>0.7999990000000002</v>
+      </c>
+      <c r="C178">
+        <v>70</v>
+      </c>
+      <c r="D178">
+        <v>0.7999990000000002</v>
+      </c>
+      <c r="E178">
+        <v>69.99349827033487</v>
+      </c>
+      <c r="F178">
+        <v>1.672628862022307</v>
+      </c>
+      <c r="G178">
+        <v>-992.3843298023567</v>
+      </c>
+      <c r="H178">
+        <v>6.720205258773881</v>
+      </c>
+      <c r="I178">
+        <v>89.26663518481814</v>
+      </c>
+      <c r="J178">
+        <v>1.787212124777059</v>
+      </c>
+      <c r="K178">
+        <v>-1060.367315308191</v>
+      </c>
+      <c r="L178">
+        <v>6.743545158336843</v>
+      </c>
+      <c r="M178">
+        <v>89.55478569483924</v>
+      </c>
+      <c r="N178">
+        <v>1.655803627496831</v>
+      </c>
+      <c r="O178">
+        <v>-982.4017813168466</v>
+      </c>
+      <c r="P178">
+        <v>6.717030950250573</v>
+      </c>
+      <c r="Q178">
+        <v>89.2274457008408</v>
+      </c>
+    </row>
+    <row r="179" spans="1:17">
+      <c r="A179" s="1">
+        <v>175</v>
+      </c>
+      <c r="B179">
+        <v>0.7999990000000002</v>
+      </c>
+      <c r="C179">
+        <v>75</v>
+      </c>
+      <c r="D179">
+        <v>0.7999990000000002</v>
+      </c>
+      <c r="E179">
+        <v>74.9920814218773</v>
+      </c>
+      <c r="F179">
+        <v>1.619259445899738</v>
+      </c>
+      <c r="G179">
+        <v>-977.0029640151188</v>
+      </c>
+      <c r="H179">
+        <v>6.385926387640857</v>
+      </c>
+      <c r="I179">
+        <v>84.2745530129903</v>
+      </c>
+      <c r="J179">
+        <v>1.732965218045661</v>
+      </c>
+      <c r="K179">
+        <v>-1045.608979689889</v>
+      </c>
+      <c r="L179">
+        <v>6.409090088253471</v>
+      </c>
+      <c r="M179">
+        <v>84.56052820013686</v>
+      </c>
+      <c r="N179">
+        <v>1.60255901485199</v>
+      </c>
+      <c r="O179">
+        <v>-966.9265240561217</v>
+      </c>
+      <c r="P179">
+        <v>6.382776042795215</v>
+      </c>
+      <c r="Q179">
+        <v>84.23565938058347</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17">
+      <c r="A180" s="1">
+        <v>176</v>
+      </c>
+      <c r="B180">
+        <v>0.7999990000000002</v>
+      </c>
+      <c r="C180">
+        <v>80</v>
+      </c>
+      <c r="D180">
+        <v>0.7999990000000002</v>
+      </c>
+      <c r="E180">
+        <v>80.01200451183938</v>
+      </c>
+      <c r="F180">
+        <v>1.574459919370999</v>
+      </c>
+      <c r="G180">
+        <v>-963.8781388625503</v>
+      </c>
+      <c r="H180">
+        <v>6.101385076741964</v>
+      </c>
+      <c r="I180">
+        <v>80.02523542774478</v>
+      </c>
+      <c r="J180">
+        <v>1.687543356347639</v>
+      </c>
+      <c r="K180">
+        <v>-1033.107374282554</v>
+      </c>
+      <c r="L180">
+        <v>6.124425066897858</v>
+      </c>
+      <c r="M180">
+        <v>80.30968330621107</v>
+      </c>
+      <c r="N180">
+        <v>1.557848074912401</v>
+      </c>
+      <c r="O180">
+        <v>-953.7084331540391</v>
+      </c>
+      <c r="P180">
+        <v>6.098251556954037</v>
+      </c>
+      <c r="Q180">
+        <v>79.98654951469632</v>
+      </c>
+    </row>
+    <row r="181" spans="1:17">
+      <c r="A181" s="1">
+        <v>177</v>
+      </c>
+      <c r="B181">
+        <v>0.7999990000000002</v>
+      </c>
+      <c r="C181">
+        <v>85</v>
+      </c>
+      <c r="D181">
+        <v>0.7999990000000002</v>
+      </c>
+      <c r="E181">
+        <v>85.00335634749013</v>
+      </c>
+      <c r="F181">
+        <v>1.5352837284961</v>
+      </c>
+      <c r="G181">
+        <v>-951.7966556753963</v>
+      </c>
+      <c r="H181">
+        <v>5.858561478130312</v>
+      </c>
+      <c r="I181">
+        <v>76.3991777660359</v>
+      </c>
+      <c r="J181">
+        <v>1.647949662927375</v>
+      </c>
+      <c r="K181">
+        <v>-1021.642316567712</v>
+      </c>
+      <c r="L181">
+        <v>5.881519860044031</v>
+      </c>
+      <c r="M181">
+        <v>76.68261812274569</v>
+      </c>
+      <c r="N181">
+        <v>1.51873142977498</v>
+      </c>
+      <c r="O181">
+        <v>-941.5350850801915</v>
+      </c>
+      <c r="P181">
+        <v>5.855439057350673</v>
+      </c>
+      <c r="Q181">
+        <v>76.36062887949396</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17">
+      <c r="A182" s="1">
+        <v>178</v>
+      </c>
+      <c r="B182">
+        <v>0.7999990000000002</v>
+      </c>
+      <c r="C182">
+        <v>90</v>
+      </c>
+      <c r="D182">
+        <v>0.7999990000000002</v>
+      </c>
+      <c r="E182">
+        <v>90.00614171422774</v>
+      </c>
+      <c r="F182">
+        <v>1.502038283559218</v>
+      </c>
+      <c r="G182">
+        <v>-941.5573144443333</v>
+      </c>
+      <c r="H182">
+        <v>5.647281817361349</v>
+      </c>
+      <c r="I182">
+        <v>73.24409726906705</v>
+      </c>
+      <c r="J182">
+        <v>1.614448467255639</v>
+      </c>
+      <c r="K182">
+        <v>-1012.020951467566</v>
+      </c>
+      <c r="L182">
+        <v>5.670191865854469</v>
+      </c>
+      <c r="M182">
+        <v>73.5269409094217</v>
+      </c>
+      <c r="N182">
+        <v>1.485522616245702</v>
+      </c>
+      <c r="O182">
+        <v>-931.2044175257906</v>
+      </c>
+      <c r="P182">
+        <v>5.6441659700971</v>
+      </c>
+      <c r="Q182">
+        <v>73.2056295380505</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17">
+      <c r="A183" s="1">
+        <v>179</v>
+      </c>
+      <c r="B183">
+        <v>0.7999990000000002</v>
+      </c>
+      <c r="C183">
+        <v>95</v>
+      </c>
+      <c r="D183">
+        <v>0.7999990000000002</v>
+      </c>
+      <c r="E183">
+        <v>97.37407467279134</v>
+      </c>
+      <c r="F183">
+        <v>1.460368628600799</v>
+      </c>
+      <c r="G183">
+        <v>-928.4133138088509</v>
+      </c>
+      <c r="H183">
+        <v>5.381922180091793</v>
+      </c>
+      <c r="I183">
+        <v>69.28130350808014</v>
+      </c>
+      <c r="J183">
+        <v>1.572634297079202</v>
+      </c>
+      <c r="K183">
+        <v>-999.7857669275254</v>
+      </c>
+      <c r="L183">
+        <v>5.404808791922737</v>
+      </c>
+      <c r="M183">
+        <v>69.56385780330967</v>
+      </c>
+      <c r="N183">
+        <v>1.443874071972756</v>
+      </c>
+      <c r="O183">
+        <v>-917.9270804617554</v>
+      </c>
+      <c r="P183">
+        <v>5.378809520296124</v>
+      </c>
+      <c r="Q183">
+        <v>69.24287512901944</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17">
+      <c r="A184" s="1">
+        <v>180</v>
+      </c>
+      <c r="B184">
+        <v>0.7999990000000002</v>
+      </c>
+      <c r="C184">
+        <v>100</v>
+      </c>
+      <c r="D184">
+        <v>0.7999990000000002</v>
+      </c>
+      <c r="E184">
+        <v>98.97906794580936</v>
+      </c>
+      <c r="F184">
+        <v>1.452279783019945</v>
+      </c>
+      <c r="G184">
+        <v>-925.8206130350009</v>
+      </c>
+      <c r="H184">
+        <v>5.330341770227979</v>
+      </c>
+      <c r="I184">
+        <v>68.51093950133782</v>
+      </c>
+      <c r="J184">
+        <v>1.564545620955884</v>
+      </c>
+      <c r="K184">
+        <v>-997.3895605737343</v>
+      </c>
+      <c r="L184">
+        <v>5.353229784511904</v>
+      </c>
+      <c r="M184">
+        <v>68.79351111101811</v>
+      </c>
+      <c r="N184">
+        <v>1.435785346209718</v>
+      </c>
+      <c r="O184">
+        <v>-915.3054977227002</v>
+      </c>
+      <c r="P184">
+        <v>5.327228919693766</v>
+      </c>
+      <c r="Q184">
+        <v>68.47250876745085</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17">
+      <c r="A185" s="1">
+        <v>181</v>
+      </c>
+      <c r="B185">
+        <v>0.7999990000000002</v>
+      </c>
+      <c r="C185">
+        <v>105</v>
+      </c>
+      <c r="D185">
+        <v>0.7999990000000002</v>
+      </c>
+      <c r="E185">
+        <v>99.10201426013892</v>
+      </c>
+      <c r="F185">
+        <v>1.451673296382984</v>
+      </c>
+      <c r="G185">
+        <v>-925.6302639693022</v>
+      </c>
+      <c r="H185">
+        <v>5.326434844414998</v>
+      </c>
+      <c r="I185">
+        <v>68.45264972039004</v>
+      </c>
+      <c r="J185">
+        <v>1.563939011695949</v>
+      </c>
+      <c r="K185">
+        <v>-997.2138824360445</v>
+      </c>
+      <c r="L185">
+        <v>5.349322939205135</v>
+      </c>
+      <c r="M185">
+        <v>68.7352223239866</v>
+      </c>
+      <c r="N185">
+        <v>1.435178890961782</v>
+      </c>
+      <c r="O185">
+        <v>-915.1129385894164</v>
+      </c>
+      <c r="P185">
+        <v>5.323321982931657</v>
+      </c>
+      <c r="Q185">
+        <v>68.41421885132696</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17">
+      <c r="A186" s="1">
+        <v>182</v>
+      </c>
+      <c r="B186">
+        <v>0.7999990000000002</v>
+      </c>
+      <c r="C186">
+        <v>110</v>
+      </c>
+      <c r="D186">
+        <v>0.7999990000000002</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17">
+      <c r="A187" s="1">
+        <v>183</v>
+      </c>
+      <c r="B187">
+        <v>0.7999990000000002</v>
+      </c>
+      <c r="C187">
+        <v>115</v>
+      </c>
+      <c r="D187">
+        <v>0.7999990000000002</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17">
+      <c r="A188" s="1">
+        <v>184</v>
+      </c>
+      <c r="B188">
+        <v>0.7999990000000002</v>
+      </c>
+      <c r="C188">
+        <v>120</v>
+      </c>
+      <c r="D188">
+        <v>0.7999990000000002</v>
+      </c>
+    </row>
+    <row r="189" spans="1:17">
+      <c r="A189" s="1">
+        <v>185</v>
+      </c>
+      <c r="B189">
+        <v>0.7999990000000002</v>
+      </c>
+      <c r="C189">
+        <v>125</v>
+      </c>
+      <c r="D189">
+        <v>0.7999990000000002</v>
+      </c>
+    </row>
+    <row r="190" spans="1:17">
+      <c r="A190" s="1">
+        <v>186</v>
+      </c>
+      <c r="B190">
+        <v>0.7999990000000002</v>
+      </c>
+      <c r="C190">
+        <v>130</v>
+      </c>
+      <c r="D190">
+        <v>0.7999990000000002</v>
+      </c>
+    </row>
+    <row r="191" spans="1:17">
+      <c r="A191" s="1">
+        <v>187</v>
+      </c>
+      <c r="B191">
+        <v>0.7999990000000002</v>
+      </c>
+      <c r="C191">
+        <v>135</v>
+      </c>
+      <c r="D191">
+        <v>0.7999990000000002</v>
+      </c>
+    </row>
+    <row r="192" spans="1:17">
+      <c r="A192" s="1">
+        <v>188</v>
+      </c>
+      <c r="B192">
+        <v>0.7999990000000002</v>
+      </c>
+      <c r="C192">
+        <v>140</v>
+      </c>
+      <c r="D192">
+        <v>0.7999990000000002</v>
+      </c>
+    </row>
+    <row r="193" spans="1:17">
+      <c r="A193" s="1">
+        <v>189</v>
+      </c>
+      <c r="B193">
+        <v>0.7999990000000002</v>
+      </c>
+      <c r="C193">
+        <v>145</v>
+      </c>
+      <c r="D193">
+        <v>0.7999990000000002</v>
+      </c>
+    </row>
+    <row r="194" spans="1:17">
+      <c r="A194" s="1">
+        <v>190</v>
+      </c>
+      <c r="B194">
+        <v>0.7999990000000002</v>
+      </c>
+      <c r="C194">
+        <v>150</v>
+      </c>
+      <c r="D194">
+        <v>0.7999990000000002</v>
+      </c>
+    </row>
+    <row r="195" spans="1:17">
+      <c r="A195" s="1">
+        <v>191</v>
+      </c>
+      <c r="B195">
+        <v>0.7999990000000002</v>
+      </c>
+      <c r="C195">
+        <v>155</v>
+      </c>
+      <c r="D195">
+        <v>0.7999990000000002</v>
+      </c>
+    </row>
+    <row r="196" spans="1:17">
+      <c r="A196" s="1">
+        <v>192</v>
+      </c>
+      <c r="B196">
+        <v>0.7999990000000002</v>
+      </c>
+      <c r="C196">
+        <v>160</v>
+      </c>
+      <c r="D196">
+        <v>0.7999990000000002</v>
+      </c>
+    </row>
+    <row r="197" spans="1:17">
+      <c r="A197" s="1">
+        <v>193</v>
+      </c>
+      <c r="B197">
+        <v>0.7999990000000002</v>
+      </c>
+      <c r="C197">
+        <v>165</v>
+      </c>
+      <c r="D197">
+        <v>0.7999990000000002</v>
+      </c>
+    </row>
+    <row r="198" spans="1:17">
+      <c r="A198" s="1">
+        <v>194</v>
+      </c>
+      <c r="B198">
+        <v>0.7999990000000002</v>
+      </c>
+      <c r="C198">
+        <v>170</v>
+      </c>
+      <c r="D198">
+        <v>0.7999990000000002</v>
+      </c>
+    </row>
+    <row r="199" spans="1:17">
+      <c r="A199" s="1">
+        <v>195</v>
+      </c>
+      <c r="B199">
+        <v>0.7999990000000002</v>
+      </c>
+      <c r="C199">
+        <v>175</v>
+      </c>
+      <c r="D199">
+        <v>0.7999990000000002</v>
+      </c>
+    </row>
+    <row r="200" spans="1:17">
+      <c r="A200" s="1">
+        <v>196</v>
+      </c>
+      <c r="B200">
+        <v>0.7999990000000002</v>
+      </c>
+      <c r="C200">
+        <v>180</v>
+      </c>
+      <c r="D200">
+        <v>0.7999990000000002</v>
+      </c>
+    </row>
+    <row r="201" spans="1:17">
+      <c r="A201" s="1">
+        <v>197</v>
+      </c>
+      <c r="B201">
+        <v>0.7999990000000002</v>
+      </c>
+      <c r="C201">
+        <v>185</v>
+      </c>
+      <c r="D201">
+        <v>0.7999990000000002</v>
+      </c>
+    </row>
+    <row r="202" spans="1:17">
+      <c r="A202" s="1">
+        <v>198</v>
+      </c>
+      <c r="B202">
+        <v>0.7999990000000002</v>
+      </c>
+      <c r="C202">
+        <v>190</v>
+      </c>
+      <c r="D202">
+        <v>0.7999990000000002</v>
+      </c>
+    </row>
+    <row r="203" spans="1:17">
+      <c r="A203" s="1">
+        <v>199</v>
+      </c>
+      <c r="B203">
+        <v>0.7999990000000002</v>
+      </c>
+      <c r="C203">
+        <v>195</v>
+      </c>
+      <c r="D203">
+        <v>0.7999990000000002</v>
+      </c>
+    </row>
+    <row r="204" spans="1:17">
+      <c r="A204" s="1">
+        <v>200</v>
+      </c>
+      <c r="B204">
+        <v>0.7999990000000002</v>
+      </c>
+      <c r="C204">
+        <v>200</v>
+      </c>
+      <c r="D204">
+        <v>0.7999990000000002</v>
+      </c>
+    </row>
+    <row r="205" spans="1:17">
+      <c r="A205" s="1">
+        <v>201</v>
+      </c>
+      <c r="B205">
+        <v>0.7999990000000002</v>
+      </c>
+      <c r="C205">
+        <v>205</v>
+      </c>
+      <c r="D205">
+        <v>0.7999990000000002</v>
+      </c>
+    </row>
+    <row r="206" spans="1:17">
+      <c r="A206" s="1">
+        <v>202</v>
+      </c>
+      <c r="B206">
+        <v>0.7999990000000002</v>
+      </c>
+      <c r="C206">
+        <v>210</v>
+      </c>
+      <c r="D206">
+        <v>0.7999990000000002</v>
+      </c>
+    </row>
+    <row r="207" spans="1:17">
+      <c r="A207" s="1">
+        <v>203</v>
+      </c>
+      <c r="B207">
+        <v>0.7999990000000002</v>
+      </c>
+      <c r="C207">
+        <v>215</v>
+      </c>
+      <c r="D207">
+        <v>0.7999990000000002</v>
+      </c>
+    </row>
+    <row r="208" spans="1:17">
+      <c r="A208" s="1">
+        <v>204</v>
+      </c>
+      <c r="B208">
+        <v>0.8999990000000001</v>
+      </c>
+      <c r="C208">
+        <v>50</v>
+      </c>
+      <c r="D208">
+        <v>0.8999990000000001</v>
+      </c>
+      <c r="E208">
+        <v>49.99520206725267</v>
+      </c>
+      <c r="F208">
+        <v>1.578593362785862</v>
+      </c>
+      <c r="G208">
+        <v>-938.7001860514283</v>
+      </c>
+      <c r="H208">
+        <v>5.116485352336284</v>
+      </c>
+      <c r="I208">
+        <v>62.80084893863021</v>
+      </c>
+      <c r="J208">
+        <v>1.699841198297024</v>
+      </c>
+      <c r="K208">
+        <v>-1033.190142913722</v>
+      </c>
+      <c r="L208">
+        <v>5.141293056681127</v>
+      </c>
+      <c r="M208">
+        <v>63.10712072185426</v>
+      </c>
+      <c r="N208">
+        <v>1.560879969981962</v>
+      </c>
+      <c r="O208">
+        <v>-928.1676621520892</v>
+      </c>
+      <c r="P208">
+        <v>5.113111417194313</v>
+      </c>
+      <c r="Q208">
+        <v>62.75919489768997</v>
+      </c>
+    </row>
+    <row r="209" spans="1:17">
+      <c r="A209" s="1">
+        <v>205</v>
+      </c>
+      <c r="B209">
+        <v>0.8999990000000001</v>
+      </c>
+      <c r="C209">
+        <v>55</v>
+      </c>
+      <c r="D209">
+        <v>0.8999990000000001</v>
+      </c>
+      <c r="E209">
+        <v>54.99461410251293</v>
+      </c>
+      <c r="F209">
+        <v>1.522031828866525</v>
+      </c>
+      <c r="G209">
+        <v>-937.6747485110536</v>
+      </c>
+      <c r="H209">
+        <v>5.009365700287274</v>
+      </c>
+      <c r="I209">
+        <v>61.73462093250966</v>
+      </c>
+      <c r="J209">
+        <v>1.640060593145562</v>
+      </c>
+      <c r="K209">
+        <v>-1030.523097730242</v>
+      </c>
+      <c r="L209">
+        <v>5.033520477779994</v>
+      </c>
+      <c r="M209">
+        <v>62.03283178963852</v>
+      </c>
+      <c r="N209">
+        <v>1.504769339460412</v>
+      </c>
+      <c r="O209">
+        <v>-927.039434697479</v>
+      </c>
+      <c r="P209">
+        <v>5.006080565496232</v>
+      </c>
+      <c r="Q209">
+        <v>61.69406320590191</v>
+      </c>
+    </row>
+    <row r="210" spans="1:17">
+      <c r="A210" s="1">
+        <v>206</v>
+      </c>
+      <c r="B210">
+        <v>0.8999990000000001</v>
+      </c>
+      <c r="C210">
+        <v>60</v>
+      </c>
+      <c r="D210">
+        <v>0.8999990000000001</v>
+      </c>
+      <c r="E210">
+        <v>59.99401547400675</v>
+      </c>
+      <c r="F210">
+        <v>1.477797080197891</v>
+      </c>
+      <c r="G210">
+        <v>-936.8208436211571</v>
+      </c>
+      <c r="H210">
+        <v>4.924022713274439</v>
+      </c>
+      <c r="I210">
+        <v>60.87609642716856</v>
+      </c>
+      <c r="J210">
+        <v>1.593470186086934</v>
+      </c>
+      <c r="K210">
+        <v>-1027.202633677982</v>
+      </c>
+      <c r="L210">
+        <v>4.947700575260244</v>
+      </c>
+      <c r="M210">
+        <v>61.16841936493498</v>
+      </c>
+      <c r="N210">
+        <v>1.460864326727759</v>
+      </c>
+      <c r="O210">
+        <v>-926.086181724444</v>
+      </c>
+      <c r="P210">
+        <v>4.920802440671617</v>
+      </c>
+      <c r="Q210">
+        <v>60.83633947832621</v>
+      </c>
+    </row>
+    <row r="211" spans="1:17">
+      <c r="A211" s="1">
+        <v>207</v>
+      </c>
+      <c r="B211">
+        <v>0.8999990000000001</v>
+      </c>
+      <c r="C211">
+        <v>65</v>
+      </c>
+      <c r="D211">
+        <v>0.8999990000000001</v>
+      </c>
+      <c r="E211">
+        <v>64.99350204414807</v>
+      </c>
+      <c r="F211">
+        <v>1.442792036423809</v>
+      </c>
+      <c r="G211">
+        <v>-936.4457179475576</v>
+      </c>
+      <c r="H211">
+        <v>4.854935210553317</v>
+      </c>
+      <c r="I211">
+        <v>60.17816562312998</v>
+      </c>
+      <c r="J211">
+        <v>1.556720162724897</v>
+      </c>
+      <c r="K211">
+        <v>-1025.141438690946</v>
+      </c>
+      <c r="L211">
+        <v>4.878260311869035</v>
+      </c>
+      <c r="M211">
+        <v>60.46613343645694</v>
+      </c>
+      <c r="N211">
+        <v>1.426103649450463</v>
+      </c>
+      <c r="O211">
+        <v>-925.6141276350245</v>
+      </c>
+      <c r="P211">
+        <v>4.851762914643741</v>
+      </c>
+      <c r="Q211">
+        <v>60.13900098654634</v>
+      </c>
+    </row>
+    <row r="212" spans="1:17">
+      <c r="A212" s="1">
+        <v>208</v>
+      </c>
+      <c r="B212">
+        <v>0.8999990000000001</v>
+      </c>
+      <c r="C212">
+        <v>70</v>
+      </c>
+      <c r="D212">
+        <v>0.8999990000000001</v>
+      </c>
+      <c r="E212">
+        <v>69.99311168205296</v>
+      </c>
+      <c r="F212">
+        <v>1.598804259470906</v>
+      </c>
+      <c r="G212">
+        <v>-1058.434577648528</v>
+      </c>
+      <c r="H212">
+        <v>6.710109526745391</v>
+      </c>
+      <c r="I212">
+        <v>89.74825794000733</v>
+      </c>
+      <c r="J212">
+        <v>1.711412328270262</v>
+      </c>
+      <c r="K212">
+        <v>-1132.983514846303</v>
+      </c>
+      <c r="L212">
+        <v>6.733172624807001</v>
+      </c>
+      <c r="M212">
+        <v>90.03299110482629</v>
+      </c>
+      <c r="N212">
+        <v>1.582297905464516</v>
+      </c>
+      <c r="O212">
+        <v>-1047.507100985385</v>
+      </c>
+      <c r="P212">
+        <v>6.706972864200919</v>
+      </c>
+      <c r="Q212">
+        <v>89.70953322701038</v>
+      </c>
+    </row>
+    <row r="213" spans="1:17">
+      <c r="A213" s="1">
+        <v>209</v>
+      </c>
+      <c r="B213">
+        <v>0.8999990000000001</v>
+      </c>
+      <c r="C213">
+        <v>75</v>
+      </c>
+      <c r="D213">
+        <v>0.8999990000000001</v>
+      </c>
+      <c r="E213">
+        <v>74.99292171660851</v>
+      </c>
+      <c r="F213">
+        <v>1.545685495759625</v>
+      </c>
+      <c r="G213">
+        <v>-1040.634851871058</v>
+      </c>
+      <c r="H213">
+        <v>6.374395157734804</v>
+      </c>
+      <c r="I213">
+        <v>84.72245350068317</v>
+      </c>
+      <c r="J213">
+        <v>1.657344764745297</v>
+      </c>
+      <c r="K213">
+        <v>-1115.810427371413</v>
+      </c>
+      <c r="L213">
+        <v>6.397264829695866</v>
+      </c>
+      <c r="M213">
+        <v>85.00479865910243</v>
+      </c>
+      <c r="N213">
+        <v>1.529314119495829</v>
+      </c>
+      <c r="O213">
+        <v>-1029.612800511532</v>
+      </c>
+      <c r="P213">
+        <v>6.371284801821085</v>
+      </c>
+      <c r="Q213">
+        <v>84.68405356496505</v>
+      </c>
+    </row>
+    <row r="214" spans="1:17">
+      <c r="A214" s="1">
+        <v>210</v>
+      </c>
+      <c r="B214">
+        <v>0.8999990000000001</v>
+      </c>
+      <c r="C214">
+        <v>80</v>
+      </c>
+      <c r="D214">
+        <v>0.8999990000000001</v>
+      </c>
+      <c r="E214">
+        <v>79.99253307374146</v>
+      </c>
+      <c r="F214">
+        <v>1.502695238199825</v>
+      </c>
+      <c r="G214">
+        <v>-1026.470538550057</v>
+      </c>
+      <c r="H214">
+        <v>6.089676236796096</v>
+      </c>
+      <c r="I214">
+        <v>80.46022343394057</v>
+      </c>
+      <c r="J214">
+        <v>1.613660454641079</v>
+      </c>
+      <c r="K214">
+        <v>-1102.26995200105</v>
+      </c>
+      <c r="L214">
+        <v>6.112405187642861</v>
+      </c>
+      <c r="M214">
+        <v>80.74083127293626</v>
+      </c>
+      <c r="N214">
+        <v>1.486422719561927</v>
+      </c>
+      <c r="O214">
+        <v>-1015.355004451238</v>
+      </c>
+      <c r="P214">
+        <v>6.086585019449419</v>
+      </c>
+      <c r="Q214">
+        <v>80.42205977978139</v>
+      </c>
+    </row>
+    <row r="215" spans="1:17">
+      <c r="A215" s="1">
+        <v>211</v>
+      </c>
+      <c r="B215">
+        <v>0.8999990000000001</v>
+      </c>
+      <c r="C215">
+        <v>85</v>
+      </c>
+      <c r="D215">
+        <v>0.8999990000000001</v>
+      </c>
+      <c r="E215">
+        <v>85.00514453605284</v>
+      </c>
+      <c r="F215">
+        <v>1.464253389142481</v>
+      </c>
+      <c r="G215">
+        <v>-1012.945662661456</v>
+      </c>
+      <c r="H215">
+        <v>5.844601096653239</v>
+      </c>
+      <c r="I215">
+        <v>76.79143151027185</v>
+      </c>
+      <c r="J215">
+        <v>1.574725233948411</v>
+      </c>
+      <c r="K215">
+        <v>-1089.368679323234</v>
+      </c>
+      <c r="L215">
+        <v>5.867230852460382</v>
+      </c>
+      <c r="M215">
+        <v>77.07081470384087</v>
+      </c>
+      <c r="N215">
+        <v>1.448051296982962</v>
+      </c>
+      <c r="O215">
+        <v>-1001.737329798751</v>
+      </c>
+      <c r="P215">
+        <v>5.841523370181228</v>
+      </c>
+      <c r="Q215">
+        <v>76.75343441220282</v>
+      </c>
+    </row>
+    <row r="216" spans="1:17">
+      <c r="A216" s="1">
+        <v>212</v>
+      </c>
+      <c r="B216">
+        <v>0.8999990000000001</v>
+      </c>
+      <c r="C216">
+        <v>90</v>
+      </c>
+      <c r="D216">
+        <v>0.8999990000000001</v>
+      </c>
+      <c r="E216">
+        <v>90.00384883409428</v>
+      </c>
+      <c r="F216">
+        <v>1.431693387653387</v>
+      </c>
+      <c r="G216">
+        <v>-1001.463306712918</v>
+      </c>
+      <c r="H216">
+        <v>5.632518671407871</v>
+      </c>
+      <c r="I216">
+        <v>73.6167089674088</v>
+      </c>
+      <c r="J216">
+        <v>1.541833959885427</v>
+      </c>
+      <c r="K216">
+        <v>-1078.505626721308</v>
+      </c>
+      <c r="L216">
+        <v>5.655082763627578</v>
+      </c>
+      <c r="M216">
+        <v>73.89528148927127</v>
+      </c>
+      <c r="N216">
+        <v>1.415538780902857</v>
+      </c>
+      <c r="O216">
+        <v>-990.1632299395278</v>
+      </c>
+      <c r="P216">
+        <v>5.629449875414961</v>
+      </c>
+      <c r="Q216">
+        <v>73.57882212354633</v>
+      </c>
+    </row>
+    <row r="217" spans="1:17">
+      <c r="A217" s="1">
+        <v>213</v>
+      </c>
+      <c r="B217">
+        <v>0.8999990000000001</v>
+      </c>
+      <c r="C217">
+        <v>95</v>
+      </c>
+      <c r="D217">
+        <v>0.8999990000000001</v>
+      </c>
+      <c r="E217">
+        <v>95.0036850842931</v>
+      </c>
+      <c r="F217">
+        <v>1.402494389465273</v>
+      </c>
+      <c r="G217">
+        <v>-990.7168612414971</v>
+      </c>
+      <c r="H217">
+        <v>5.446729735109361</v>
+      </c>
+      <c r="I217">
+        <v>70.83562585960996</v>
+      </c>
+      <c r="J217">
+        <v>1.512435236379641</v>
+      </c>
+      <c r="K217">
+        <v>-1068.379566762596</v>
+      </c>
+      <c r="L217">
+        <v>5.469255380665174</v>
+      </c>
+      <c r="M217">
+        <v>71.11372372536775</v>
+      </c>
+      <c r="N217">
+        <v>1.386368664044654</v>
+      </c>
+      <c r="O217">
+        <v>-979.3257082477212</v>
+      </c>
+      <c r="P217">
+        <v>5.443666167998118</v>
+      </c>
+      <c r="Q217">
+        <v>70.79780357064907</v>
+      </c>
+    </row>
+    <row r="218" spans="1:17">
+      <c r="A218" s="1">
+        <v>214</v>
+      </c>
+      <c r="B218">
+        <v>0.8999990000000001</v>
+      </c>
+      <c r="C218">
+        <v>100</v>
+      </c>
+      <c r="D218">
+        <v>0.8999990000000001</v>
+      </c>
+      <c r="E218">
+        <v>99.99532494134274</v>
+      </c>
+      <c r="F218">
+        <v>1.377313962655922</v>
+      </c>
+      <c r="G218">
+        <v>-981.4757237685844</v>
+      </c>
+      <c r="H218">
+        <v>5.282873842279751</v>
+      </c>
+      <c r="I218">
+        <v>68.38298205178596</v>
+      </c>
+      <c r="J218">
+        <v>1.487162812833897</v>
+      </c>
+      <c r="K218">
+        <v>-1059.754002195783</v>
+      </c>
+      <c r="L218">
+        <v>5.305383326380353</v>
+      </c>
+      <c r="M218">
+        <v>68.6608803909113</v>
+      </c>
+      <c r="N218">
+        <v>1.361201899994853</v>
+      </c>
+      <c r="O218">
+        <v>-969.9942472688854</v>
+      </c>
+      <c r="P218">
+        <v>5.279812473183322</v>
+      </c>
+      <c r="Q218">
+        <v>68.34518689914962</v>
+      </c>
+    </row>
+    <row r="219" spans="1:17">
+      <c r="A219" s="1">
+        <v>215</v>
+      </c>
+      <c r="B219">
+        <v>0.8999990000000001</v>
+      </c>
+      <c r="C219">
+        <v>105</v>
+      </c>
+      <c r="D219">
+        <v>0.8999990000000001</v>
+      </c>
+      <c r="E219">
+        <v>109.3549245200259</v>
+      </c>
+      <c r="F219">
+        <v>1.337238939402107</v>
+      </c>
+      <c r="G219">
+        <v>-966.4383015772328</v>
+      </c>
+      <c r="H219">
+        <v>5.021729187650648</v>
+      </c>
+      <c r="I219">
+        <v>64.47404792520436</v>
+      </c>
+      <c r="J219">
+        <v>1.44714659048507</v>
+      </c>
+      <c r="K219">
+        <v>-1045.869428830221</v>
+      </c>
+      <c r="L219">
+        <v>5.044256221845975</v>
+      </c>
+      <c r="M219">
+        <v>64.75216293487416</v>
+      </c>
+      <c r="N219">
+        <v>1.321119852049423</v>
+      </c>
+      <c r="O219">
+        <v>-954.7888469649479</v>
+      </c>
+      <c r="P219">
+        <v>5.01866543167954</v>
+      </c>
+      <c r="Q219">
+        <v>64.43622330461106</v>
+      </c>
+    </row>
+    <row r="220" spans="1:17">
+      <c r="A220" s="1">
+        <v>216</v>
+      </c>
+      <c r="B220">
+        <v>0.8999990000000001</v>
+      </c>
+      <c r="C220">
+        <v>110</v>
+      </c>
+      <c r="D220">
+        <v>0.8999990000000001</v>
+      </c>
+      <c r="E220">
+        <v>110.3790952605644</v>
+      </c>
+      <c r="F220">
+        <v>1.333228174789612</v>
+      </c>
+      <c r="G220">
+        <v>-964.8713129209355</v>
+      </c>
+      <c r="H220">
+        <v>4.996355196306427</v>
+      </c>
+      <c r="I220">
+        <v>64.09423453381888</v>
+      </c>
+      <c r="J220">
+        <v>1.443158185843531</v>
+      </c>
+      <c r="K220">
+        <v>-1044.429374407046</v>
+      </c>
+      <c r="L220">
+        <v>5.018887444569549</v>
+      </c>
+      <c r="M220">
+        <v>64.37241391550066</v>
+      </c>
+      <c r="N220">
+        <v>1.317106070046128</v>
+      </c>
+      <c r="O220">
+        <v>-953.2035748045892</v>
+      </c>
+      <c r="P220">
+        <v>4.99329073120374</v>
+      </c>
+      <c r="Q220">
+        <v>64.05640115840529</v>
+      </c>
+    </row>
+    <row r="221" spans="1:17">
+      <c r="A221" s="1">
+        <v>217</v>
+      </c>
+      <c r="B221">
+        <v>0.8999990000000001</v>
+      </c>
+      <c r="C221">
+        <v>115</v>
+      </c>
+      <c r="D221">
+        <v>0.8999990000000001</v>
+      </c>
+      <c r="E221">
+        <v>110.4930575844457</v>
+      </c>
+      <c r="F221">
+        <v>1.332801159870416</v>
+      </c>
+      <c r="G221">
+        <v>-964.7092131236568</v>
+      </c>
+      <c r="H221">
+        <v>4.993554259466082</v>
+      </c>
+      <c r="I221">
+        <v>64.05230476968529</v>
+      </c>
+      <c r="J221">
+        <v>1.442733787560172</v>
+      </c>
+      <c r="K221">
+        <v>-1044.281514207833</v>
+      </c>
+      <c r="L221">
+        <v>5.016087114578879</v>
+      </c>
+      <c r="M221">
+        <v>64.33049164343204</v>
+      </c>
+      <c r="N221">
+        <v>1.31667870150333</v>
+      </c>
+      <c r="O221">
+        <v>-953.039442117326</v>
+      </c>
+      <c r="P221">
+        <v>4.990489711829702</v>
+      </c>
+      <c r="Q221">
+        <v>64.01447037532449</v>
+      </c>
+    </row>
+    <row r="222" spans="1:17">
+      <c r="A222" s="1">
+        <v>218</v>
+      </c>
+      <c r="B222">
+        <v>0.8999990000000001</v>
+      </c>
+      <c r="C222">
+        <v>120</v>
+      </c>
+      <c r="D222">
+        <v>0.8999990000000001</v>
+      </c>
+    </row>
+    <row r="223" spans="1:17">
+      <c r="A223" s="1">
+        <v>219</v>
+      </c>
+      <c r="B223">
+        <v>0.8999990000000001</v>
+      </c>
+      <c r="C223">
+        <v>125</v>
+      </c>
+      <c r="D223">
+        <v>0.8999990000000001</v>
+      </c>
+    </row>
+    <row r="224" spans="1:17">
+      <c r="A224" s="1">
+        <v>220</v>
+      </c>
+      <c r="B224">
+        <v>0.8999990000000001</v>
+      </c>
+      <c r="C224">
+        <v>130</v>
+      </c>
+      <c r="D224">
+        <v>0.8999990000000001</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="1">
+        <v>221</v>
+      </c>
+      <c r="B225">
+        <v>0.8999990000000001</v>
+      </c>
+      <c r="C225">
+        <v>135</v>
+      </c>
+      <c r="D225">
+        <v>0.8999990000000001</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="1">
+        <v>222</v>
+      </c>
+      <c r="B226">
+        <v>0.8999990000000001</v>
+      </c>
+      <c r="C226">
+        <v>140</v>
+      </c>
+      <c r="D226">
+        <v>0.8999990000000001</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1">
+        <v>223</v>
+      </c>
+      <c r="B227">
+        <v>0.8999990000000001</v>
+      </c>
+      <c r="C227">
+        <v>145</v>
+      </c>
+      <c r="D227">
+        <v>0.8999990000000001</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="1">
+        <v>224</v>
+      </c>
+      <c r="B228">
+        <v>0.8999990000000001</v>
+      </c>
+      <c r="C228">
+        <v>150</v>
+      </c>
+      <c r="D228">
+        <v>0.8999990000000001</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="1">
+        <v>225</v>
+      </c>
+      <c r="B229">
+        <v>0.8999990000000001</v>
+      </c>
+      <c r="C229">
+        <v>155</v>
+      </c>
+      <c r="D229">
+        <v>0.8999990000000001</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="1">
+        <v>226</v>
+      </c>
+      <c r="B230">
+        <v>0.8999990000000001</v>
+      </c>
+      <c r="C230">
+        <v>160</v>
+      </c>
+      <c r="D230">
+        <v>0.8999990000000001</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="1">
+        <v>227</v>
+      </c>
+      <c r="B231">
+        <v>0.8999990000000001</v>
+      </c>
+      <c r="C231">
+        <v>165</v>
+      </c>
+      <c r="D231">
+        <v>0.8999990000000001</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="1">
+        <v>228</v>
+      </c>
+      <c r="B232">
+        <v>0.8999990000000001</v>
+      </c>
+      <c r="C232">
+        <v>170</v>
+      </c>
+      <c r="D232">
+        <v>0.8999990000000001</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="1">
+        <v>229</v>
+      </c>
+      <c r="B233">
+        <v>0.8999990000000001</v>
+      </c>
+      <c r="C233">
+        <v>175</v>
+      </c>
+      <c r="D233">
+        <v>0.8999990000000001</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="1">
+        <v>230</v>
+      </c>
+      <c r="B234">
+        <v>0.8999990000000001</v>
+      </c>
+      <c r="C234">
+        <v>180</v>
+      </c>
+      <c r="D234">
+        <v>0.8999990000000001</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="1">
+        <v>231</v>
+      </c>
+      <c r="B235">
+        <v>0.8999990000000001</v>
+      </c>
+      <c r="C235">
+        <v>185</v>
+      </c>
+      <c r="D235">
+        <v>0.8999990000000001</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="1">
+        <v>232</v>
+      </c>
+      <c r="B236">
+        <v>0.8999990000000001</v>
+      </c>
+      <c r="C236">
+        <v>190</v>
+      </c>
+      <c r="D236">
+        <v>0.8999990000000001</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="1">
+        <v>233</v>
+      </c>
+      <c r="B237">
+        <v>0.8999990000000001</v>
+      </c>
+      <c r="C237">
+        <v>195</v>
+      </c>
+      <c r="D237">
+        <v>0.8999990000000001</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="1">
+        <v>234</v>
+      </c>
+      <c r="B238">
+        <v>0.8999990000000001</v>
+      </c>
+      <c r="C238">
+        <v>200</v>
+      </c>
+      <c r="D238">
+        <v>0.8999990000000001</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="1">
+        <v>235</v>
+      </c>
+      <c r="B239">
+        <v>0.8999990000000001</v>
+      </c>
+      <c r="C239">
+        <v>205</v>
+      </c>
+      <c r="D239">
+        <v>0.8999990000000001</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="1">
+        <v>236</v>
+      </c>
+      <c r="B240">
+        <v>0.8999990000000001</v>
+      </c>
+      <c r="C240">
+        <v>210</v>
+      </c>
+      <c r="D240">
+        <v>0.8999990000000001</v>
+      </c>
+    </row>
+    <row r="241" spans="1:17">
+      <c r="A241" s="1">
+        <v>237</v>
+      </c>
+      <c r="B241">
+        <v>0.8999990000000001</v>
+      </c>
+      <c r="C241">
+        <v>215</v>
+      </c>
+      <c r="D241">
+        <v>0.8999990000000001</v>
+      </c>
+    </row>
+    <row r="242" spans="1:17">
+      <c r="A242" s="1">
+        <v>238</v>
+      </c>
+      <c r="B242">
+        <v>0.9999990000000002</v>
+      </c>
+      <c r="C242">
+        <v>50</v>
+      </c>
+      <c r="D242">
+        <v>0.9999990000000002</v>
+      </c>
+      <c r="E242">
+        <v>49.9949389482518</v>
+      </c>
+      <c r="F242">
+        <v>1.487469779070902</v>
+      </c>
+      <c r="G242">
+        <v>-978.4491980234161</v>
+      </c>
+      <c r="H242">
+        <v>5.050537084889159</v>
+      </c>
+      <c r="I242">
+        <v>63.39496098721121</v>
+      </c>
+      <c r="J242">
+        <v>1.607389858817906</v>
+      </c>
+      <c r="K242">
+        <v>-1080.755187881179</v>
+      </c>
+      <c r="L242">
+        <v>5.075199733699128</v>
+      </c>
+      <c r="M242">
+        <v>63.69944193897761</v>
+      </c>
+      <c r="N242">
+        <v>1.469980461934754</v>
+      </c>
+      <c r="O242">
+        <v>-966.9448214406148</v>
+      </c>
+      <c r="P242">
+        <v>5.047182877810691</v>
+      </c>
+      <c r="Q242">
+        <v>63.35355050565495</v>
+      </c>
+    </row>
+    <row r="243" spans="1:17">
+      <c r="A243" s="1">
+        <v>239</v>
+      </c>
+      <c r="B243">
+        <v>0.9999990000000002</v>
+      </c>
+      <c r="C243">
+        <v>55</v>
+      </c>
+      <c r="D243">
+        <v>0.9999990000000002</v>
+      </c>
+      <c r="E243">
+        <v>54.99476991672126</v>
+      </c>
+      <c r="F243">
+        <v>1.433059797597674</v>
+      </c>
+      <c r="G243">
+        <v>-976.7042630817741</v>
+      </c>
+      <c r="H243">
+        <v>4.945782628857255</v>
+      </c>
+      <c r="I243">
+        <v>62.3105430979794</v>
+      </c>
+      <c r="J243">
+        <v>1.54969937424323</v>
+      </c>
+      <c r="K243">
+        <v>-1079.597505440004</v>
+      </c>
+      <c r="L243">
+        <v>4.96977610387249</v>
+      </c>
+      <c r="M243">
+        <v>62.60676254160499</v>
+      </c>
+      <c r="N243">
+        <v>1.416028881656243</v>
+      </c>
+      <c r="O243">
+        <v>-965.0974943740293</v>
+      </c>
+      <c r="P243">
+        <v>4.942519431771116</v>
+      </c>
+      <c r="Q243">
+        <v>62.27025621062011</v>
+      </c>
+    </row>
+    <row r="244" spans="1:17">
+      <c r="A244" s="1">
+        <v>240</v>
+      </c>
+      <c r="B244">
+        <v>0.9999990000000002</v>
+      </c>
+      <c r="C244">
+        <v>60</v>
+      </c>
+      <c r="D244">
+        <v>0.9999990000000002</v>
+      </c>
+      <c r="E244">
+        <v>59.99414029486206</v>
+      </c>
+      <c r="F244">
+        <v>1.392024616294869</v>
+      </c>
+      <c r="G244">
+        <v>-976.3123669279739</v>
+      </c>
+      <c r="H244">
+        <v>4.863568785158802</v>
+      </c>
+      <c r="I244">
+        <v>61.45793582093423</v>
+      </c>
+      <c r="J244">
+        <v>1.506251487166902</v>
+      </c>
+      <c r="K244">
+        <v>-1077.311813287437</v>
+      </c>
+      <c r="L244">
+        <v>4.887069578342736</v>
+      </c>
+      <c r="M244">
+        <v>61.74807269678422</v>
+      </c>
+      <c r="N244">
+        <v>1.375331397594953</v>
+      </c>
+      <c r="O244">
+        <v>-964.6038872264326</v>
+      </c>
+      <c r="P244">
+        <v>4.860372594536515</v>
+      </c>
+      <c r="Q244">
+        <v>61.41847618420991</v>
+      </c>
+    </row>
+    <row r="245" spans="1:17">
+      <c r="A245" s="1">
+        <v>241</v>
+      </c>
+      <c r="B245">
+        <v>0.9999990000000002</v>
+      </c>
+      <c r="C245">
+        <v>65</v>
+      </c>
+      <c r="D245">
+        <v>0.9999990000000002</v>
+      </c>
+      <c r="E245">
+        <v>64.99351718612438</v>
+      </c>
+      <c r="F245">
+        <v>1.57678797106323</v>
+      </c>
+      <c r="G245">
+        <v>-1132.330039125867</v>
+      </c>
+      <c r="H245">
+        <v>7.072193031274556</v>
+      </c>
+      <c r="I245">
+        <v>96.63506577592403</v>
+      </c>
+      <c r="J245">
+        <v>1.689143967683381</v>
+      </c>
+      <c r="K245">
+        <v>-1213.015373555943</v>
+      </c>
+      <c r="L245">
+        <v>7.095325777191881</v>
+      </c>
+      <c r="M245">
+        <v>96.92065880156167</v>
+      </c>
+      <c r="N245">
+        <v>1.560347301309502</v>
+      </c>
+      <c r="O245">
+        <v>-1120.523591348901</v>
+      </c>
+      <c r="P245">
+        <v>7.069046896376469</v>
+      </c>
+      <c r="Q245">
+        <v>96.59622411882808</v>
+      </c>
+    </row>
+    <row r="246" spans="1:17">
+      <c r="A246" s="1">
+        <v>242</v>
+      </c>
+      <c r="B246">
+        <v>0.9999990000000002</v>
+      </c>
+      <c r="C246">
+        <v>70</v>
+      </c>
+      <c r="D246">
+        <v>0.9999990000000002</v>
+      </c>
+      <c r="E246">
+        <v>69.99297430768399</v>
+      </c>
+      <c r="F246">
+        <v>1.517534641937372</v>
+      </c>
+      <c r="G246">
+        <v>-1111.585613618605</v>
+      </c>
+      <c r="H246">
+        <v>6.671262511519527</v>
+      </c>
+      <c r="I246">
+        <v>90.60547620879827</v>
+      </c>
+      <c r="J246">
+        <v>1.628549930768219</v>
+      </c>
+      <c r="K246">
+        <v>-1192.902679230087</v>
+      </c>
+      <c r="L246">
+        <v>6.694118322702379</v>
+      </c>
+      <c r="M246">
+        <v>90.8876502443599</v>
+      </c>
+      <c r="N246">
+        <v>1.501284342722981</v>
+      </c>
+      <c r="O246">
+        <v>-1099.682360568084</v>
+      </c>
+      <c r="P246">
+        <v>6.66815404072045</v>
+      </c>
+      <c r="Q246">
+        <v>90.56709954639133</v>
+      </c>
+    </row>
+    <row r="247" spans="1:17">
+      <c r="A247" s="1">
+        <v>243</v>
+      </c>
+      <c r="B247">
+        <v>0.9999990000000002</v>
+      </c>
+      <c r="C247">
+        <v>75</v>
+      </c>
+      <c r="D247">
+        <v>0.9999990000000002</v>
+      </c>
+      <c r="E247">
+        <v>74.99251328421423</v>
+      </c>
+      <c r="F247">
+        <v>1.46685269360395</v>
+      </c>
+      <c r="G247">
+        <v>-1092.73074560985</v>
+      </c>
+      <c r="H247">
+        <v>6.336268974367457</v>
+      </c>
+      <c r="I247">
+        <v>85.56749575790097</v>
+      </c>
+      <c r="J247">
+        <v>1.576857097095089</v>
+      </c>
+      <c r="K247">
+        <v>-1174.677996543236</v>
+      </c>
+      <c r="L247">
+        <v>6.358916462033856</v>
+      </c>
+      <c r="M247">
+        <v>85.84709786604907</v>
+      </c>
+      <c r="N247">
+        <v>1.450745990929988</v>
+      </c>
+      <c r="O247">
+        <v>-1080.732070276514</v>
+      </c>
+      <c r="P247">
+        <v>6.333188836300153</v>
+      </c>
+      <c r="Q247">
+        <v>85.52946888667837</v>
+      </c>
+    </row>
+    <row r="248" spans="1:17">
+      <c r="A248" s="1">
+        <v>244</v>
+      </c>
+      <c r="B248">
+        <v>0.9999990000000002</v>
+      </c>
+      <c r="C248">
+        <v>80</v>
+      </c>
+      <c r="D248">
+        <v>0.9999990000000002</v>
+      </c>
+      <c r="E248">
+        <v>79.99221323985951</v>
+      </c>
+      <c r="F248">
+        <v>1.423513985099632</v>
+      </c>
+      <c r="G248">
+        <v>-1075.96633685939</v>
+      </c>
+      <c r="H248">
+        <v>6.052152420035553</v>
+      </c>
+      <c r="I248">
+        <v>81.29472392958037</v>
+      </c>
+      <c r="J248">
+        <v>1.532761389383585</v>
+      </c>
+      <c r="K248">
+        <v>-1158.541161049157</v>
+      </c>
+      <c r="L248">
+        <v>6.074644402958413</v>
+      </c>
+      <c r="M248">
+        <v>81.57240620208216</v>
+      </c>
+      <c r="N248">
+        <v>1.407514910558187</v>
+      </c>
+      <c r="O248">
+        <v>-1063.873400182463</v>
+      </c>
+      <c r="P248">
+        <v>6.049093431160922</v>
+      </c>
+      <c r="Q248">
+        <v>81.25695816276564</v>
+      </c>
+    </row>
+    <row r="249" spans="1:17">
+      <c r="A249" s="1">
+        <v>245</v>
+      </c>
+      <c r="B249">
+        <v>0.9999990000000002</v>
+      </c>
+      <c r="C249">
+        <v>85</v>
+      </c>
+      <c r="D249">
+        <v>0.9999990000000002</v>
+      </c>
+      <c r="E249">
+        <v>84.9920535606432</v>
+      </c>
+      <c r="F249">
+        <v>1.386436512645947</v>
+      </c>
+      <c r="G249">
+        <v>-1061.27539565973</v>
+      </c>
+      <c r="H249">
+        <v>5.808185761269368</v>
+      </c>
+      <c r="I249">
+        <v>77.62568447183577</v>
+      </c>
+      <c r="J249">
+        <v>1.495127994921974</v>
+      </c>
+      <c r="K249">
+        <v>-1144.475417647511</v>
+      </c>
+      <c r="L249">
+        <v>5.830564071013953</v>
+      </c>
+      <c r="M249">
+        <v>77.90196335422412</v>
+      </c>
+      <c r="N249">
+        <v>1.370516599801013</v>
+      </c>
+      <c r="O249">
+        <v>-1049.089181105606</v>
+      </c>
+      <c r="P249">
+        <v>5.805142232347239</v>
+      </c>
+      <c r="Q249">
+        <v>77.58810957101798</v>
+      </c>
+    </row>
+    <row r="250" spans="1:17">
+      <c r="A250" s="1">
+        <v>246</v>
+      </c>
+      <c r="B250">
+        <v>0.9999990000000002</v>
+      </c>
+      <c r="C250">
+        <v>90</v>
+      </c>
+      <c r="D250">
+        <v>0.9999990000000002</v>
+      </c>
+      <c r="E250">
+        <v>89.99143648698949</v>
+      </c>
+      <c r="F250">
+        <v>1.354762430418732</v>
+      </c>
+      <c r="G250">
+        <v>-1048.616877935827</v>
+      </c>
+      <c r="H250">
+        <v>5.596433494623508</v>
+      </c>
+      <c r="I250">
+        <v>74.44121445816931</v>
+      </c>
+      <c r="J250">
+        <v>1.463058161403459</v>
+      </c>
+      <c r="K250">
+        <v>-1132.440299597569</v>
+      </c>
+      <c r="L250">
+        <v>5.618731455453177</v>
+      </c>
+      <c r="M250">
+        <v>74.71650136624561</v>
+      </c>
+      <c r="N250">
+        <v>1.338899028938938</v>
+      </c>
+      <c r="O250">
+        <v>-1036.33824423328</v>
+      </c>
+      <c r="P250">
+        <v>5.593400893436725</v>
+      </c>
+      <c r="Q250">
+        <v>74.40377446935084</v>
+      </c>
+    </row>
+    <row r="251" spans="1:17">
+      <c r="A251" s="1">
+        <v>247</v>
+      </c>
+      <c r="B251">
+        <v>0.9999990000000002</v>
+      </c>
+      <c r="C251">
+        <v>95</v>
+      </c>
+      <c r="D251">
+        <v>0.9999990000000002</v>
+      </c>
+      <c r="E251">
+        <v>95.0061131592421</v>
+      </c>
+      <c r="F251">
+        <v>1.326915733528659</v>
+      </c>
+      <c r="G251">
+        <v>-1037.247438754886</v>
+      </c>
+      <c r="H251">
+        <v>5.410339209376131</v>
+      </c>
+      <c r="I251">
+        <v>71.64258980684565</v>
+      </c>
+      <c r="J251">
+        <v>1.434945907565867</v>
+      </c>
+      <c r="K251">
+        <v>-1121.694534852169</v>
+      </c>
+      <c r="L251">
+        <v>5.432583914048069</v>
+      </c>
+      <c r="M251">
+        <v>71.91721922327463</v>
+      </c>
+      <c r="N251">
+        <v>1.31109044690744</v>
+      </c>
+      <c r="O251">
+        <v>-1024.876843074337</v>
+      </c>
+      <c r="P251">
+        <v>5.407313851214322</v>
+      </c>
+      <c r="Q251">
+        <v>71.60523923920633</v>
+      </c>
+    </row>
+    <row r="252" spans="1:17">
+      <c r="A252" s="1">
+        <v>248</v>
+      </c>
+      <c r="B252">
+        <v>0.9999990000000002</v>
+      </c>
+      <c r="C252">
+        <v>100</v>
+      </c>
+      <c r="D252">
+        <v>0.9999990000000002</v>
+      </c>
+      <c r="E252">
+        <v>100.0043303904768</v>
+      </c>
+      <c r="F252">
+        <v>1.302395681844308</v>
+      </c>
+      <c r="G252">
+        <v>-1027.042544833384</v>
+      </c>
+      <c r="H252">
+        <v>5.246524395124672</v>
+      </c>
+      <c r="I252">
+        <v>69.17896484157779</v>
+      </c>
+      <c r="J252">
+        <v>1.410269589514624</v>
+      </c>
+      <c r="K252">
+        <v>-1112.109942173585</v>
+      </c>
+      <c r="L252">
+        <v>5.268738573633356</v>
+      </c>
+      <c r="M252">
+        <v>69.45321738708293</v>
+      </c>
+      <c r="N252">
+        <v>1.286593074093404</v>
+      </c>
+      <c r="O252">
+        <v>-1014.5809321329</v>
+      </c>
+      <c r="P252">
+        <v>5.243503188628552</v>
+      </c>
+      <c r="Q252">
+        <v>69.14166552971112</v>
+      </c>
+    </row>
+    <row r="253" spans="1:17">
+      <c r="A253" s="1">
+        <v>249</v>
+      </c>
+      <c r="B253">
+        <v>0.9999990000000002</v>
+      </c>
+      <c r="C253">
+        <v>105</v>
+      </c>
+      <c r="D253">
+        <v>0.9999990000000002</v>
+      </c>
+      <c r="E253">
+        <v>105.0042085263921</v>
+      </c>
+      <c r="F253">
+        <v>1.280546544084574</v>
+      </c>
+      <c r="G253">
+        <v>-1017.793659249321</v>
+      </c>
+      <c r="H253">
+        <v>5.100688487601047</v>
+      </c>
+      <c r="I253">
+        <v>66.98579478309927</v>
+      </c>
+      <c r="J253">
+        <v>1.388353541132482</v>
+      </c>
+      <c r="K253">
+        <v>-1103.479183156975</v>
+      </c>
+      <c r="L253">
+        <v>5.122890731360168</v>
+      </c>
+      <c r="M253">
+        <v>67.25989998417541</v>
+      </c>
+      <c r="N253">
+        <v>1.264754011696272</v>
+      </c>
+      <c r="O253">
+        <v>-1005.241567722522</v>
+      </c>
+      <c r="P253">
+        <v>5.097668904272893</v>
+      </c>
+      <c r="Q253">
+        <v>66.94851551059375</v>
+      </c>
+    </row>
+    <row r="254" spans="1:17">
+      <c r="A254" s="1">
+        <v>250</v>
+      </c>
+      <c r="B254">
+        <v>0.9999990000000002</v>
+      </c>
+      <c r="C254">
+        <v>110</v>
+      </c>
+      <c r="D254">
+        <v>0.9999990000000002</v>
+      </c>
+      <c r="E254">
+        <v>109.9946201472191</v>
+      </c>
+      <c r="F254">
+        <v>1.260626924984819</v>
+      </c>
+      <c r="G254">
+        <v>-1009.091557032429</v>
+      </c>
+      <c r="H254">
+        <v>4.970314200918366</v>
+      </c>
+      <c r="I254">
+        <v>65.02515162585981</v>
+      </c>
+      <c r="J254">
+        <v>1.368442728474973</v>
+      </c>
+      <c r="K254">
+        <v>-1095.394108394161</v>
+      </c>
+      <c r="L254">
+        <v>4.992520257771393</v>
+      </c>
+      <c r="M254">
+        <v>65.2993039027578</v>
+      </c>
+      <c r="N254">
+        <v>1.244833792864898</v>
+      </c>
+      <c r="O254">
+        <v>-996.4498785510659</v>
+      </c>
+      <c r="P254">
+        <v>4.967294098996013</v>
+      </c>
+      <c r="Q254">
+        <v>64.98786595087675</v>
+      </c>
+    </row>
+    <row r="255" spans="1:17">
+      <c r="A255" s="1">
+        <v>251</v>
+      </c>
+      <c r="B255">
+        <v>0.9999990000000002</v>
+      </c>
+      <c r="C255">
+        <v>115</v>
+      </c>
+      <c r="D255">
+        <v>0.9999990000000002</v>
+      </c>
+      <c r="E255">
+        <v>117.4312849495033</v>
+      </c>
+      <c r="F255">
+        <v>1.234950525661711</v>
+      </c>
+      <c r="G255">
+        <v>-997.844752185978</v>
+      </c>
+      <c r="H255">
+        <v>4.799441973850081</v>
+      </c>
+      <c r="I255">
+        <v>62.45545301169705</v>
+      </c>
+      <c r="J255">
+        <v>1.342896163017125</v>
+      </c>
+      <c r="K255">
+        <v>-1085.06487726979</v>
+      </c>
+      <c r="L255">
+        <v>4.821677990104574</v>
+      </c>
+      <c r="M255">
+        <v>62.7299751623723</v>
+      </c>
+      <c r="N255">
+        <v>1.219140059699207</v>
+      </c>
+      <c r="O255">
+        <v>-985.0694889388978</v>
+      </c>
+      <c r="P255">
+        <v>4.796417797343639</v>
+      </c>
+      <c r="Q255">
+        <v>62.41811703257792</v>
+      </c>
+    </row>
+    <row r="256" spans="1:17">
+      <c r="A256" s="1">
+        <v>252</v>
+      </c>
+      <c r="B256">
+        <v>0.9999990000000002</v>
+      </c>
+      <c r="C256">
+        <v>120</v>
+      </c>
+      <c r="D256">
+        <v>0.9999990000000002</v>
+      </c>
+      <c r="E256">
+        <v>121.9922860583879</v>
+      </c>
+      <c r="F256">
+        <v>1.22116881952666</v>
+      </c>
+      <c r="G256">
+        <v>-991.8007002230734</v>
+      </c>
+      <c r="H256">
+        <v>4.706300968095704</v>
+      </c>
+      <c r="I256">
+        <v>61.05477113323161</v>
+      </c>
+      <c r="J256">
+        <v>1.32925168845231</v>
+      </c>
+      <c r="K256">
+        <v>-1079.58329129871</v>
+      </c>
+      <c r="L256">
+        <v>4.728567340937335</v>
+      </c>
+      <c r="M256">
+        <v>61.32966806127226</v>
+      </c>
+      <c r="N256">
+        <v>1.205339618729596</v>
+      </c>
+      <c r="O256">
+        <v>-978.9451640406623</v>
+      </c>
+      <c r="P256">
+        <v>4.70327266298652</v>
+      </c>
+      <c r="Q256">
+        <v>61.01738418307115</v>
+      </c>
+    </row>
+    <row r="257" spans="1:17">
+      <c r="A257" s="1">
+        <v>253</v>
+      </c>
+      <c r="B257">
+        <v>0.9999990000000002</v>
+      </c>
+      <c r="C257">
+        <v>125</v>
+      </c>
+      <c r="D257">
+        <v>0.9999990000000002</v>
+      </c>
+      <c r="E257">
+        <v>122.6834588674082</v>
+      </c>
+      <c r="F257">
+        <v>1.219173583657174</v>
+      </c>
+      <c r="G257">
+        <v>-990.914897843264</v>
+      </c>
+      <c r="H257">
+        <v>4.692881073271312</v>
+      </c>
+      <c r="I257">
+        <v>60.85290286348155</v>
+      </c>
+      <c r="J257">
+        <v>1.327280954254174</v>
+      </c>
+      <c r="K257">
+        <v>-1078.782515389845</v>
+      </c>
+      <c r="L257">
+        <v>4.715152816433232</v>
+      </c>
+      <c r="M257">
+        <v>61.12786609260142</v>
+      </c>
+      <c r="N257">
+        <v>1.203341020820385</v>
+      </c>
+      <c r="O257">
+        <v>-978.0470735961571</v>
+      </c>
+      <c r="P257">
+        <v>4.68985203777966</v>
+      </c>
+      <c r="Q257">
+        <v>60.81550689614086</v>
+      </c>
+    </row>
+    <row r="258" spans="1:17">
+      <c r="A258" s="1">
+        <v>254</v>
+      </c>
+      <c r="B258">
+        <v>0.9999990000000002</v>
+      </c>
+      <c r="C258">
+        <v>130</v>
+      </c>
+      <c r="D258">
+        <v>0.9999990000000002</v>
+      </c>
+    </row>
+    <row r="259" spans="1:17">
+      <c r="A259" s="1">
+        <v>255</v>
+      </c>
+      <c r="B259">
+        <v>0.9999990000000002</v>
+      </c>
+      <c r="C259">
+        <v>135</v>
+      </c>
+      <c r="D259">
+        <v>0.9999990000000002</v>
+      </c>
+    </row>
+    <row r="260" spans="1:17">
+      <c r="A260" s="1">
+        <v>256</v>
+      </c>
+      <c r="B260">
+        <v>0.9999990000000002</v>
+      </c>
+      <c r="C260">
+        <v>140</v>
+      </c>
+      <c r="D260">
+        <v>0.9999990000000002</v>
+      </c>
+    </row>
+    <row r="261" spans="1:17">
+      <c r="A261" s="1">
+        <v>257</v>
+      </c>
+      <c r="B261">
+        <v>0.9999990000000002</v>
+      </c>
+      <c r="C261">
+        <v>145</v>
+      </c>
+      <c r="D261">
+        <v>0.9999990000000002</v>
+      </c>
+    </row>
+    <row r="262" spans="1:17">
+      <c r="A262" s="1">
+        <v>258</v>
+      </c>
+      <c r="B262">
+        <v>0.9999990000000002</v>
+      </c>
+      <c r="C262">
+        <v>150</v>
+      </c>
+      <c r="D262">
+        <v>0.9999990000000002</v>
+      </c>
+    </row>
+    <row r="263" spans="1:17">
+      <c r="A263" s="1">
+        <v>259</v>
+      </c>
+      <c r="B263">
+        <v>0.9999990000000002</v>
+      </c>
+      <c r="C263">
+        <v>155</v>
+      </c>
+      <c r="D263">
+        <v>0.9999990000000002</v>
+      </c>
+    </row>
+    <row r="264" spans="1:17">
+      <c r="A264" s="1">
+        <v>260</v>
+      </c>
+      <c r="B264">
+        <v>0.9999990000000002</v>
+      </c>
+      <c r="C264">
+        <v>160</v>
+      </c>
+      <c r="D264">
+        <v>0.9999990000000002</v>
+      </c>
+    </row>
+    <row r="265" spans="1:17">
+      <c r="A265" s="1">
+        <v>261</v>
+      </c>
+      <c r="B265">
+        <v>0.9999990000000002</v>
+      </c>
+      <c r="C265">
+        <v>165</v>
+      </c>
+      <c r="D265">
+        <v>0.9999990000000002</v>
+      </c>
+    </row>
+    <row r="266" spans="1:17">
+      <c r="A266" s="1">
+        <v>262</v>
+      </c>
+      <c r="B266">
+        <v>0.9999990000000002</v>
+      </c>
+      <c r="C266">
+        <v>170</v>
+      </c>
+      <c r="D266">
+        <v>0.9999990000000002</v>
+      </c>
+    </row>
+    <row r="267" spans="1:17">
+      <c r="A267" s="1">
+        <v>263</v>
+      </c>
+      <c r="B267">
+        <v>0.9999990000000002</v>
+      </c>
+      <c r="C267">
+        <v>175</v>
+      </c>
+      <c r="D267">
+        <v>0.9999990000000002</v>
+      </c>
+    </row>
+    <row r="268" spans="1:17">
+      <c r="A268" s="1">
+        <v>264</v>
+      </c>
+      <c r="B268">
+        <v>0.9999990000000002</v>
+      </c>
+      <c r="C268">
+        <v>180</v>
+      </c>
+      <c r="D268">
+        <v>0.9999990000000002</v>
+      </c>
+    </row>
+    <row r="269" spans="1:17">
+      <c r="A269" s="1">
+        <v>265</v>
+      </c>
+      <c r="B269">
+        <v>0.9999990000000002</v>
+      </c>
+      <c r="C269">
+        <v>185</v>
+      </c>
+      <c r="D269">
+        <v>0.9999990000000002</v>
+      </c>
+    </row>
+    <row r="270" spans="1:17">
+      <c r="A270" s="1">
+        <v>266</v>
+      </c>
+      <c r="B270">
+        <v>0.9999990000000002</v>
+      </c>
+      <c r="C270">
+        <v>190</v>
+      </c>
+      <c r="D270">
+        <v>0.9999990000000002</v>
+      </c>
+    </row>
+    <row r="271" spans="1:17">
+      <c r="A271" s="1">
+        <v>267</v>
+      </c>
+      <c r="B271">
+        <v>0.9999990000000002</v>
+      </c>
+      <c r="C271">
+        <v>195</v>
+      </c>
+      <c r="D271">
+        <v>0.9999990000000002</v>
+      </c>
+    </row>
+    <row r="272" spans="1:17">
+      <c r="A272" s="1">
+        <v>268</v>
+      </c>
+      <c r="B272">
+        <v>0.9999990000000002</v>
+      </c>
+      <c r="C272">
+        <v>200</v>
+      </c>
+      <c r="D272">
+        <v>0.9999990000000002</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="1">
+        <v>269</v>
+      </c>
+      <c r="B273">
+        <v>0.9999990000000002</v>
+      </c>
+      <c r="C273">
+        <v>205</v>
+      </c>
+      <c r="D273">
+        <v>0.9999990000000002</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="1">
+        <v>270</v>
+      </c>
+      <c r="B274">
+        <v>0.9999990000000002</v>
+      </c>
+      <c r="C274">
+        <v>210</v>
+      </c>
+      <c r="D274">
+        <v>0.9999990000000002</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="1">
+        <v>271</v>
+      </c>
+      <c r="B275">
+        <v>0.9999990000000002</v>
+      </c>
+      <c r="C275">
+        <v>215</v>
+      </c>
+      <c r="D275">
+        <v>0.9999990000000002</v>
       </c>
     </row>
   </sheetData>
